--- a/gantt-chart_L.xlsx
+++ b/gantt-chart_L.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guimi\Desktop\HTCS5607\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E14FCB-D75D-4FAA-BC8D-E8CF3577C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873F09B-BBF9-4E15-9353-E5ECF575DB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$1:$BN$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GanttChartPro!$A$1:$C$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$4:$7</definedName>
     <definedName name="valuevx">42.314159</definedName>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="241">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -1593,9 +1593,6 @@
     <t>Database design</t>
   </si>
   <si>
-    <t>Data dictionary</t>
-  </si>
-  <si>
     <t>3.1.5</t>
   </si>
   <si>
@@ -1722,9 +1719,6 @@
     <t>Deployment diagram</t>
   </si>
   <si>
-    <t>RED</t>
-  </si>
-  <si>
     <t>Version control:GitHub</t>
   </si>
   <si>
@@ -1780,6 +1774,66 @@
   </si>
   <si>
     <t>2.9.3</t>
+  </si>
+  <si>
+    <t>3.1.4.1</t>
+  </si>
+  <si>
+    <t>3.1.4.2</t>
+  </si>
+  <si>
+    <t>3.1.4.3</t>
+  </si>
+  <si>
+    <t>3.1.4.4</t>
+  </si>
+  <si>
+    <t>3.1.4.5</t>
+  </si>
+  <si>
+    <t>3.1.4.6</t>
+  </si>
+  <si>
+    <t>3.1.4.7</t>
+  </si>
+  <si>
+    <t>3.1.4.8</t>
+  </si>
+  <si>
+    <t>3.1.5.1</t>
+  </si>
+  <si>
+    <t>3.1.5.2</t>
+  </si>
+  <si>
+    <t>3.1.5.3</t>
+  </si>
+  <si>
+    <t>3.1.5.4</t>
+  </si>
+  <si>
+    <t>3.1.5.5</t>
+  </si>
+  <si>
+    <t>3.1.5.6</t>
+  </si>
+  <si>
+    <t>3.1.5.7</t>
+  </si>
+  <si>
+    <t>3.1.5.8</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>Creat data dictionary</t>
+  </si>
+  <si>
+    <t>Creat data base</t>
+  </si>
+  <si>
+    <t>Make RED</t>
   </si>
 </sst>
 </file>
@@ -3115,38 +3169,6 @@
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3159,6 +3181,38 @@
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="47" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="45" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -4084,11 +4138,11 @@
   <sheetPr codeName="Sheet8">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN82"/>
+  <dimension ref="A1:BN99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA14" sqref="AA14"/>
+      <pane ySplit="7" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4116,29 +4170,29 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
       <c r="I1" s="119"/>
-      <c r="K1" s="151" t="s">
+      <c r="K1" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="151"/>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="151"/>
-      <c r="AA1" s="151"/>
-      <c r="AB1" s="151"/>
-      <c r="AC1" s="151"/>
-      <c r="AD1" s="151"/>
-      <c r="AE1" s="151"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
     </row>
     <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="51" t="s">
@@ -4183,11 +4237,11 @@
       <c r="B4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="156">
+      <c r="C4" s="164">
         <v>44459</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
       <c r="F4" s="100"/>
       <c r="G4" s="103" t="s">
         <v>75</v>
@@ -4197,182 +4251,182 @@
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="49"/>
-      <c r="K4" s="153" t="str">
+      <c r="K4" s="156" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="153" t="str">
+      <c r="L4" s="157"/>
+      <c r="M4" s="157"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="156" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="154"/>
-      <c r="T4" s="154"/>
-      <c r="U4" s="154"/>
-      <c r="V4" s="154"/>
-      <c r="W4" s="154"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="153" t="str">
+      <c r="S4" s="157"/>
+      <c r="T4" s="157"/>
+      <c r="U4" s="157"/>
+      <c r="V4" s="157"/>
+      <c r="W4" s="157"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="156" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="154"/>
-      <c r="AA4" s="154"/>
-      <c r="AB4" s="154"/>
-      <c r="AC4" s="154"/>
-      <c r="AD4" s="154"/>
-      <c r="AE4" s="155"/>
-      <c r="AF4" s="153" t="str">
+      <c r="Z4" s="157"/>
+      <c r="AA4" s="157"/>
+      <c r="AB4" s="157"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="158"/>
+      <c r="AF4" s="156" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="154"/>
-      <c r="AH4" s="154"/>
-      <c r="AI4" s="154"/>
-      <c r="AJ4" s="154"/>
-      <c r="AK4" s="154"/>
-      <c r="AL4" s="155"/>
-      <c r="AM4" s="153" t="str">
+      <c r="AG4" s="157"/>
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157"/>
+      <c r="AJ4" s="157"/>
+      <c r="AK4" s="157"/>
+      <c r="AL4" s="158"/>
+      <c r="AM4" s="156" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="154"/>
-      <c r="AO4" s="154"/>
-      <c r="AP4" s="154"/>
-      <c r="AQ4" s="154"/>
-      <c r="AR4" s="154"/>
-      <c r="AS4" s="155"/>
-      <c r="AT4" s="153" t="str">
+      <c r="AN4" s="157"/>
+      <c r="AO4" s="157"/>
+      <c r="AP4" s="157"/>
+      <c r="AQ4" s="157"/>
+      <c r="AR4" s="157"/>
+      <c r="AS4" s="158"/>
+      <c r="AT4" s="156" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="154"/>
-      <c r="AV4" s="154"/>
-      <c r="AW4" s="154"/>
-      <c r="AX4" s="154"/>
-      <c r="AY4" s="154"/>
-      <c r="AZ4" s="155"/>
-      <c r="BA4" s="153" t="str">
+      <c r="AU4" s="157"/>
+      <c r="AV4" s="157"/>
+      <c r="AW4" s="157"/>
+      <c r="AX4" s="157"/>
+      <c r="AY4" s="157"/>
+      <c r="AZ4" s="158"/>
+      <c r="BA4" s="156" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="154"/>
-      <c r="BC4" s="154"/>
-      <c r="BD4" s="154"/>
-      <c r="BE4" s="154"/>
-      <c r="BF4" s="154"/>
-      <c r="BG4" s="155"/>
-      <c r="BH4" s="153" t="str">
+      <c r="BB4" s="157"/>
+      <c r="BC4" s="157"/>
+      <c r="BD4" s="157"/>
+      <c r="BE4" s="157"/>
+      <c r="BF4" s="157"/>
+      <c r="BG4" s="158"/>
+      <c r="BH4" s="156" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="154"/>
-      <c r="BJ4" s="154"/>
-      <c r="BK4" s="154"/>
-      <c r="BL4" s="154"/>
-      <c r="BM4" s="154"/>
-      <c r="BN4" s="155"/>
+      <c r="BI4" s="157"/>
+      <c r="BJ4" s="157"/>
+      <c r="BK4" s="157"/>
+      <c r="BL4" s="157"/>
+      <c r="BM4" s="157"/>
+      <c r="BN4" s="158"/>
     </row>
     <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="99"/>
       <c r="B5" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
       <c r="F5" s="102"/>
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
       <c r="I5" s="102"/>
       <c r="J5" s="49"/>
-      <c r="K5" s="157">
+      <c r="K5" s="159">
         <f>K6</f>
         <v>44459</v>
       </c>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="157">
+      <c r="L5" s="160"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="160"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="160"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="159">
         <f>R6</f>
         <v>44466</v>
       </c>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="159"/>
-      <c r="Y5" s="157">
+      <c r="S5" s="160"/>
+      <c r="T5" s="160"/>
+      <c r="U5" s="160"/>
+      <c r="V5" s="160"/>
+      <c r="W5" s="160"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="159">
         <f>Y6</f>
         <v>44473</v>
       </c>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
-      <c r="AB5" s="158"/>
-      <c r="AC5" s="158"/>
-      <c r="AD5" s="158"/>
-      <c r="AE5" s="159"/>
-      <c r="AF5" s="157">
+      <c r="Z5" s="160"/>
+      <c r="AA5" s="160"/>
+      <c r="AB5" s="160"/>
+      <c r="AC5" s="160"/>
+      <c r="AD5" s="160"/>
+      <c r="AE5" s="161"/>
+      <c r="AF5" s="159">
         <f>AF6</f>
         <v>44480</v>
       </c>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="158"/>
-      <c r="AK5" s="158"/>
-      <c r="AL5" s="159"/>
-      <c r="AM5" s="157">
+      <c r="AG5" s="160"/>
+      <c r="AH5" s="160"/>
+      <c r="AI5" s="160"/>
+      <c r="AJ5" s="160"/>
+      <c r="AK5" s="160"/>
+      <c r="AL5" s="161"/>
+      <c r="AM5" s="159">
         <f>AM6</f>
         <v>44487</v>
       </c>
-      <c r="AN5" s="158"/>
-      <c r="AO5" s="158"/>
-      <c r="AP5" s="158"/>
-      <c r="AQ5" s="158"/>
-      <c r="AR5" s="158"/>
-      <c r="AS5" s="159"/>
-      <c r="AT5" s="157">
+      <c r="AN5" s="160"/>
+      <c r="AO5" s="160"/>
+      <c r="AP5" s="160"/>
+      <c r="AQ5" s="160"/>
+      <c r="AR5" s="160"/>
+      <c r="AS5" s="161"/>
+      <c r="AT5" s="159">
         <f>AT6</f>
         <v>44494</v>
       </c>
-      <c r="AU5" s="158"/>
-      <c r="AV5" s="158"/>
-      <c r="AW5" s="158"/>
-      <c r="AX5" s="158"/>
-      <c r="AY5" s="158"/>
-      <c r="AZ5" s="159"/>
-      <c r="BA5" s="157">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="160"/>
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="160"/>
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="161"/>
+      <c r="BA5" s="159">
         <f>BA6</f>
         <v>44501</v>
       </c>
-      <c r="BB5" s="158"/>
-      <c r="BC5" s="158"/>
-      <c r="BD5" s="158"/>
-      <c r="BE5" s="158"/>
-      <c r="BF5" s="158"/>
-      <c r="BG5" s="159"/>
-      <c r="BH5" s="157">
+      <c r="BB5" s="160"/>
+      <c r="BC5" s="160"/>
+      <c r="BD5" s="160"/>
+      <c r="BE5" s="160"/>
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="161"/>
+      <c r="BH5" s="159">
         <f>BH6</f>
         <v>44508</v>
       </c>
-      <c r="BI5" s="158"/>
-      <c r="BJ5" s="158"/>
-      <c r="BK5" s="158"/>
-      <c r="BL5" s="158"/>
-      <c r="BM5" s="158"/>
-      <c r="BN5" s="159"/>
+      <c r="BI5" s="160"/>
+      <c r="BJ5" s="160"/>
+      <c r="BK5" s="160"/>
+      <c r="BL5" s="160"/>
+      <c r="BM5" s="160"/>
+      <c r="BN5" s="161"/>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" s="48"/>
@@ -4871,19 +4925,16 @@
       <c r="B8" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>139</v>
-      </c>
       <c r="D8" s="55"/>
       <c r="E8" s="93"/>
       <c r="F8" s="93" t="str">
-        <f t="shared" ref="F8:F66" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
+        <f t="shared" ref="F8:F83" si="4">IF(ISBLANK(E8)," - ",IF(G8=0,E8,E8+G8-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="57"/>
       <c r="I8" s="58" t="str">
-        <f t="shared" ref="I8:I75" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
+        <f t="shared" ref="I8:I92" si="5">IF(OR(F8=0,E8=0)," - ",NETWORKDAYS(E8,F8))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="J8" s="87"/>
@@ -5033,10 +5084,10 @@
     </row>
     <row r="10" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>139</v>
@@ -5118,10 +5169,10 @@
     </row>
     <row r="11" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="B11" s="151" t="s">
+        <v>197</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>139</v>
@@ -5288,10 +5339,10 @@
     </row>
     <row r="13" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="114" t="s">
         <v>164</v>
-      </c>
-      <c r="B13" s="114" t="s">
-        <v>165</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>139</v>
@@ -5374,10 +5425,10 @@
     </row>
     <row r="14" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B14" s="114" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>139</v>
@@ -5719,32 +5770,27 @@
     </row>
     <row r="18" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B18" s="114" t="s">
-        <v>148</v>
+        <v>221</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>152</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D18" s="115"/>
       <c r="E18" s="91">
-        <v>44469</v>
+        <v>44467</v>
       </c>
       <c r="F18" s="92">
         <f t="shared" si="4"/>
-        <v>44470</v>
+        <v>44468</v>
       </c>
       <c r="G18" s="61">
         <v>2</v>
       </c>
-      <c r="H18" s="62">
-        <v>0</v>
-      </c>
-      <c r="I18" s="63">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
       <c r="K18" s="97"/>
       <c r="L18" s="97"/>
@@ -5805,32 +5851,27 @@
     </row>
     <row r="19" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="114" t="s">
-        <v>163</v>
+        <v>222</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>151</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D19" s="115"/>
       <c r="E19" s="91">
-        <v>44466</v>
+        <v>44467</v>
       </c>
       <c r="F19" s="92">
         <f t="shared" si="4"/>
-        <v>44466</v>
+        <v>44468</v>
       </c>
       <c r="G19" s="61">
-        <v>1</v>
-      </c>
-      <c r="H19" s="62">
-        <v>0</v>
-      </c>
-      <c r="I19" s="63">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
       <c r="K19" s="97"/>
       <c r="L19" s="97"/>
@@ -5889,103 +5930,107 @@
       <c r="BM19" s="97"/>
       <c r="BN19" s="97"/>
     </row>
-    <row r="20" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="52">
+    <row r="20" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="154" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="91">
+        <v>44467</v>
+      </c>
+      <c r="F20" s="92">
+        <f t="shared" si="4"/>
+        <v>44468</v>
+      </c>
+      <c r="G20" s="61">
         <v>2</v>
       </c>
-      <c r="B20" s="163" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J20" s="87"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="98"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="98"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="98"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="98"/>
-      <c r="AW20" s="98"/>
-      <c r="AX20" s="98"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="98"/>
-      <c r="BA20" s="98"/>
-      <c r="BB20" s="98"/>
-      <c r="BC20" s="98"/>
-      <c r="BD20" s="98"/>
-      <c r="BE20" s="98"/>
-      <c r="BF20" s="98"/>
-      <c r="BG20" s="98"/>
-      <c r="BH20" s="98"/>
-      <c r="BI20" s="98"/>
-      <c r="BJ20" s="98"/>
-      <c r="BK20" s="98"/>
-      <c r="BL20" s="98"/>
-      <c r="BM20" s="98"/>
-      <c r="BN20" s="98"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="97"/>
+      <c r="U20" s="97"/>
+      <c r="V20" s="97"/>
+      <c r="W20" s="97"/>
+      <c r="X20" s="97"/>
+      <c r="Y20" s="97"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="97"/>
+      <c r="AB20" s="97"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="97"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+      <c r="AH20" s="97"/>
+      <c r="AI20" s="97"/>
+      <c r="AJ20" s="97"/>
+      <c r="AK20" s="97"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="97"/>
+      <c r="AO20" s="97"/>
+      <c r="AP20" s="97"/>
+      <c r="AQ20" s="97"/>
+      <c r="AR20" s="97"/>
+      <c r="AS20" s="97"/>
+      <c r="AT20" s="97"/>
+      <c r="AU20" s="97"/>
+      <c r="AV20" s="97"/>
+      <c r="AW20" s="97"/>
+      <c r="AX20" s="97"/>
+      <c r="AY20" s="97"/>
+      <c r="AZ20" s="97"/>
+      <c r="BA20" s="97"/>
+      <c r="BB20" s="97"/>
+      <c r="BC20" s="97"/>
+      <c r="BD20" s="97"/>
+      <c r="BE20" s="97"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="97"/>
+      <c r="BH20" s="97"/>
+      <c r="BI20" s="97"/>
+      <c r="BJ20" s="97"/>
+      <c r="BK20" s="97"/>
+      <c r="BL20" s="97"/>
+      <c r="BM20" s="97"/>
+      <c r="BN20" s="97"/>
     </row>
     <row r="21" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="59">
-        <v>2.1</v>
-      </c>
-      <c r="B21" s="164" t="s">
-        <v>199</v>
+      <c r="A21" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D21" s="115"/>
       <c r="E21" s="91">
-        <v>44487</v>
+        <v>44467</v>
       </c>
       <c r="F21" s="92">
-        <v>44487</v>
+        <f t="shared" si="4"/>
+        <v>44468</v>
       </c>
       <c r="G21" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="62"/>
       <c r="I21" s="63"/>
@@ -6049,23 +6094,24 @@
     </row>
     <row r="22" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="114" t="s">
-        <v>177</v>
+        <v>225</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>155</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D22" s="115"/>
       <c r="E22" s="91">
-        <v>44487</v>
+        <v>44467</v>
       </c>
       <c r="F22" s="92">
-        <v>44487</v>
+        <f t="shared" si="4"/>
+        <v>44468</v>
       </c>
       <c r="G22" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" s="62"/>
       <c r="I22" s="63"/>
@@ -6129,23 +6175,24 @@
     </row>
     <row r="23" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="114" t="s">
-        <v>195</v>
+        <v>226</v>
+      </c>
+      <c r="B23" s="154" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D23" s="115"/>
       <c r="E23" s="91">
-        <v>44487</v>
+        <v>44467</v>
       </c>
       <c r="F23" s="92">
-        <v>44487</v>
+        <f t="shared" si="4"/>
+        <v>44468</v>
       </c>
       <c r="G23" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" s="62"/>
       <c r="I23" s="63"/>
@@ -6209,23 +6256,24 @@
     </row>
     <row r="24" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="114" t="s">
-        <v>196</v>
+        <v>227</v>
+      </c>
+      <c r="B24" s="154" t="s">
+        <v>157</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="115"/>
       <c r="E24" s="91">
-        <v>44487</v>
+        <v>44467</v>
       </c>
       <c r="F24" s="92">
-        <v>44487</v>
+        <f t="shared" si="4"/>
+        <v>44468</v>
       </c>
       <c r="G24" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="62"/>
       <c r="I24" s="63"/>
@@ -6288,24 +6336,25 @@
       <c r="BN24" s="97"/>
     </row>
     <row r="25" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="59">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B25" s="162" t="s">
-        <v>200</v>
+      <c r="A25" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="154" t="s">
+        <v>158</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D25" s="115"/>
       <c r="E25" s="91">
-        <v>44488</v>
+        <v>44467</v>
       </c>
       <c r="F25" s="92">
-        <v>44488</v>
+        <f t="shared" si="4"/>
+        <v>44468</v>
       </c>
       <c r="G25" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="62"/>
       <c r="I25" s="63"/>
@@ -6368,27 +6417,33 @@
       <c r="BN25" s="97"/>
     </row>
     <row r="26" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="59">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B26" s="162" t="s">
-        <v>201</v>
+      <c r="A26" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="114" t="s">
+        <v>148</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D26" s="115"/>
       <c r="E26" s="91">
-        <v>44489</v>
-      </c>
-      <c r="F26" s="165">
-        <v>44490</v>
+        <v>44469</v>
+      </c>
+      <c r="F26" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G26" s="61">
-        <v>1</v>
-      </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="63"/>
+        <v>2</v>
+      </c>
+      <c r="H26" s="62">
+        <v>0</v>
+      </c>
+      <c r="I26" s="63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="J26" s="86"/>
       <c r="K26" s="97"/>
       <c r="L26" s="97"/>
@@ -6448,24 +6503,25 @@
       <c r="BN26" s="97"/>
     </row>
     <row r="27" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="59">
-        <v>2.4</v>
-      </c>
-      <c r="B27" s="162" t="s">
-        <v>202</v>
+      <c r="A27" s="59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="154" t="s">
+        <v>152</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D27" s="115"/>
       <c r="E27" s="91">
-        <v>44490</v>
-      </c>
-      <c r="F27" s="165">
-        <v>44491</v>
+        <v>44469</v>
+      </c>
+      <c r="F27" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G27" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="62"/>
       <c r="I27" s="63"/>
@@ -6528,24 +6584,25 @@
       <c r="BN27" s="97"/>
     </row>
     <row r="28" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="59">
-        <v>2.5</v>
-      </c>
-      <c r="B28" s="162" t="s">
-        <v>159</v>
+      <c r="A28" s="59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="154" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D28" s="115"/>
       <c r="E28" s="91">
-        <v>44494</v>
-      </c>
-      <c r="F28" s="165">
-        <v>44498</v>
+        <v>44469</v>
+      </c>
+      <c r="F28" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G28" s="61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="62"/>
       <c r="I28" s="63"/>
@@ -6609,23 +6666,24 @@
     </row>
     <row r="29" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="162" t="s">
-        <v>160</v>
+        <v>231</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>153</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="115"/>
       <c r="E29" s="91">
-        <v>44494</v>
-      </c>
-      <c r="F29" s="165">
-        <v>44497</v>
+        <v>44469</v>
+      </c>
+      <c r="F29" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G29" s="61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" s="62"/>
       <c r="I29" s="63"/>
@@ -6689,23 +6747,24 @@
     </row>
     <row r="30" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="162" t="s">
-        <v>203</v>
+        <v>232</v>
+      </c>
+      <c r="B30" s="154" t="s">
+        <v>154</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D30" s="115"/>
       <c r="E30" s="91">
-        <v>44497</v>
-      </c>
-      <c r="F30" s="165">
-        <v>44498</v>
+        <v>44469</v>
+      </c>
+      <c r="F30" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G30" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="62"/>
       <c r="I30" s="63"/>
@@ -6768,24 +6827,25 @@
       <c r="BN30" s="97"/>
     </row>
     <row r="31" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="59">
-        <v>2.6</v>
-      </c>
-      <c r="B31" s="164" t="s">
-        <v>152</v>
+      <c r="A31" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="154" t="s">
+        <v>155</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D31" s="115"/>
       <c r="E31" s="91">
-        <v>44501</v>
-      </c>
-      <c r="F31" s="165">
-        <v>44501</v>
+        <v>44469</v>
+      </c>
+      <c r="F31" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G31" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="62"/>
       <c r="I31" s="63"/>
@@ -6849,23 +6909,24 @@
     </row>
     <row r="32" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B32" s="162" t="s">
-        <v>205</v>
+        <v>234</v>
+      </c>
+      <c r="B32" s="154" t="s">
+        <v>156</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D32" s="115"/>
       <c r="E32" s="91">
-        <v>44501</v>
-      </c>
-      <c r="F32" s="165">
-        <v>44501</v>
+        <v>44469</v>
+      </c>
+      <c r="F32" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G32" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="62"/>
       <c r="I32" s="63"/>
@@ -6929,20 +6990,21 @@
     </row>
     <row r="33" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" s="162" t="s">
-        <v>206</v>
+        <v>235</v>
+      </c>
+      <c r="B33" s="154" t="s">
+        <v>157</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D33" s="115"/>
       <c r="E33" s="91">
-        <v>44501</v>
-      </c>
-      <c r="F33" s="165">
-        <v>44501</v>
+        <v>44469</v>
+      </c>
+      <c r="F33" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G33" s="61">
         <v>2</v>
@@ -7009,23 +7071,24 @@
     </row>
     <row r="34" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B34" s="162" t="s">
-        <v>207</v>
+        <v>236</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>158</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D34" s="115"/>
       <c r="E34" s="91">
-        <v>44501</v>
-      </c>
-      <c r="F34" s="165">
-        <v>44501</v>
+        <v>44469</v>
+      </c>
+      <c r="F34" s="92">
+        <f t="shared" si="4"/>
+        <v>44470</v>
       </c>
       <c r="G34" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="62"/>
       <c r="I34" s="63"/>
@@ -7088,27 +7151,33 @@
       <c r="BN34" s="97"/>
     </row>
     <row r="35" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="59">
-        <v>2.7</v>
-      </c>
-      <c r="B35" s="164" t="s">
-        <v>151</v>
+      <c r="A35" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" s="114" t="s">
+        <v>162</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D35" s="115"/>
       <c r="E35" s="91">
-        <v>44502</v>
-      </c>
-      <c r="F35" s="165">
-        <v>44502</v>
+        <v>44466</v>
+      </c>
+      <c r="F35" s="92">
+        <f t="shared" si="4"/>
+        <v>44466</v>
       </c>
       <c r="G35" s="61">
         <v>1</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="62">
+        <v>0</v>
+      </c>
+      <c r="I35" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="J35" s="86"/>
       <c r="K35" s="97"/>
       <c r="L35" s="97"/>
@@ -7167,102 +7236,100 @@
       <c r="BM35" s="97"/>
       <c r="BN35" s="97"/>
     </row>
-    <row r="36" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="59" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="162" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="91">
-        <v>44502</v>
-      </c>
-      <c r="F36" s="165">
-        <v>44502</v>
-      </c>
-      <c r="G36" s="61">
-        <v>1</v>
-      </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="97"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="97"/>
-      <c r="V36" s="97"/>
-      <c r="W36" s="97"/>
-      <c r="X36" s="97"/>
-      <c r="Y36" s="97"/>
-      <c r="Z36" s="97"/>
-      <c r="AA36" s="97"/>
-      <c r="AB36" s="97"/>
-      <c r="AC36" s="97"/>
-      <c r="AD36" s="97"/>
-      <c r="AE36" s="97"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="97"/>
-      <c r="AH36" s="97"/>
-      <c r="AI36" s="97"/>
-      <c r="AJ36" s="97"/>
-      <c r="AK36" s="97"/>
-      <c r="AL36" s="97"/>
-      <c r="AM36" s="97"/>
-      <c r="AN36" s="97"/>
-      <c r="AO36" s="97"/>
-      <c r="AP36" s="97"/>
-      <c r="AQ36" s="97"/>
-      <c r="AR36" s="97"/>
-      <c r="AS36" s="97"/>
-      <c r="AT36" s="97"/>
-      <c r="AU36" s="97"/>
-      <c r="AV36" s="97"/>
-      <c r="AW36" s="97"/>
-      <c r="AX36" s="97"/>
-      <c r="AY36" s="97"/>
-      <c r="AZ36" s="97"/>
-      <c r="BA36" s="97"/>
-      <c r="BB36" s="97"/>
-      <c r="BC36" s="97"/>
-      <c r="BD36" s="97"/>
-      <c r="BE36" s="97"/>
-      <c r="BF36" s="97"/>
-      <c r="BG36" s="97"/>
-      <c r="BH36" s="97"/>
-      <c r="BI36" s="97"/>
-      <c r="BJ36" s="97"/>
-      <c r="BK36" s="97"/>
-      <c r="BL36" s="97"/>
-      <c r="BM36" s="97"/>
-      <c r="BN36" s="97"/>
+    <row r="36" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="52">
+        <v>2</v>
+      </c>
+      <c r="B36" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G36" s="56"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="58" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J36" s="87"/>
+      <c r="K36" s="98"/>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="S36" s="98"/>
+      <c r="T36" s="98"/>
+      <c r="U36" s="98"/>
+      <c r="V36" s="98"/>
+      <c r="W36" s="98"/>
+      <c r="X36" s="98"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="98"/>
+      <c r="AA36" s="98"/>
+      <c r="AB36" s="98"/>
+      <c r="AC36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AE36" s="98"/>
+      <c r="AF36" s="98"/>
+      <c r="AG36" s="98"/>
+      <c r="AH36" s="98"/>
+      <c r="AI36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AK36" s="98"/>
+      <c r="AL36" s="98"/>
+      <c r="AM36" s="98"/>
+      <c r="AN36" s="98"/>
+      <c r="AO36" s="98"/>
+      <c r="AP36" s="98"/>
+      <c r="AQ36" s="98"/>
+      <c r="AR36" s="98"/>
+      <c r="AS36" s="98"/>
+      <c r="AT36" s="98"/>
+      <c r="AU36" s="98"/>
+      <c r="AV36" s="98"/>
+      <c r="AW36" s="98"/>
+      <c r="AX36" s="98"/>
+      <c r="AY36" s="98"/>
+      <c r="AZ36" s="98"/>
+      <c r="BA36" s="98"/>
+      <c r="BB36" s="98"/>
+      <c r="BC36" s="98"/>
+      <c r="BD36" s="98"/>
+      <c r="BE36" s="98"/>
+      <c r="BF36" s="98"/>
+      <c r="BG36" s="98"/>
+      <c r="BH36" s="98"/>
+      <c r="BI36" s="98"/>
+      <c r="BJ36" s="98"/>
+      <c r="BK36" s="98"/>
+      <c r="BL36" s="98"/>
+      <c r="BM36" s="98"/>
+      <c r="BN36" s="98"/>
     </row>
     <row r="37" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="B37" s="162" t="s">
-        <v>206</v>
+      <c r="A37" s="59">
+        <v>2.1</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>198</v>
       </c>
       <c r="C37" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D37" s="115"/>
       <c r="E37" s="91">
-        <v>44502</v>
-      </c>
-      <c r="F37" s="165">
-        <v>44502</v>
+        <v>44487</v>
+      </c>
+      <c r="F37" s="92">
+        <v>44487</v>
       </c>
       <c r="G37" s="61">
         <v>1</v>
@@ -7329,20 +7396,20 @@
     </row>
     <row r="38" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="162" t="s">
-        <v>207</v>
+        <v>163</v>
+      </c>
+      <c r="B38" s="114" t="s">
+        <v>176</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D38" s="115"/>
       <c r="E38" s="91">
-        <v>44502</v>
-      </c>
-      <c r="F38" s="165">
-        <v>44502</v>
+        <v>44487</v>
+      </c>
+      <c r="F38" s="92">
+        <v>44487</v>
       </c>
       <c r="G38" s="61">
         <v>1</v>
@@ -7408,21 +7475,21 @@
       <c r="BN38" s="97"/>
     </row>
     <row r="39" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="59">
-        <v>2.8</v>
-      </c>
-      <c r="B39" s="164" t="s">
-        <v>153</v>
+      <c r="A39" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="114" t="s">
+        <v>194</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D39" s="115"/>
       <c r="E39" s="91">
-        <v>44503</v>
-      </c>
-      <c r="F39" s="165">
-        <v>44503</v>
+        <v>44487</v>
+      </c>
+      <c r="F39" s="92">
+        <v>44487</v>
       </c>
       <c r="G39" s="61">
         <v>1</v>
@@ -7489,20 +7556,20 @@
     </row>
     <row r="40" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="162" t="s">
-        <v>205</v>
+        <v>166</v>
+      </c>
+      <c r="B40" s="114" t="s">
+        <v>195</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D40" s="115"/>
       <c r="E40" s="91">
-        <v>44503</v>
-      </c>
-      <c r="F40" s="165">
-        <v>44503</v>
+        <v>44487</v>
+      </c>
+      <c r="F40" s="92">
+        <v>44487</v>
       </c>
       <c r="G40" s="61">
         <v>1</v>
@@ -7568,21 +7635,21 @@
       <c r="BN40" s="97"/>
     </row>
     <row r="41" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B41" s="162" t="s">
-        <v>206</v>
+      <c r="A41" s="59">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B41" s="152" t="s">
+        <v>199</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D41" s="115"/>
       <c r="E41" s="91">
-        <v>44503</v>
-      </c>
-      <c r="F41" s="165">
-        <v>44503</v>
+        <v>44488</v>
+      </c>
+      <c r="F41" s="92">
+        <v>44488</v>
       </c>
       <c r="G41" s="61">
         <v>1</v>
@@ -7648,21 +7715,21 @@
       <c r="BN41" s="97"/>
     </row>
     <row r="42" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="162" t="s">
-        <v>207</v>
+      <c r="A42" s="59">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B42" s="152" t="s">
+        <v>200</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D42" s="115"/>
       <c r="E42" s="91">
-        <v>44503</v>
-      </c>
-      <c r="F42" s="165">
-        <v>44503</v>
+        <v>44489</v>
+      </c>
+      <c r="F42" s="155">
+        <v>44490</v>
       </c>
       <c r="G42" s="61">
         <v>1</v>
@@ -7729,20 +7796,20 @@
     </row>
     <row r="43" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="59">
-        <v>2.9</v>
-      </c>
-      <c r="B43" s="164" t="s">
-        <v>154</v>
+        <v>2.4</v>
+      </c>
+      <c r="B43" s="152" t="s">
+        <v>201</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D43" s="115"/>
       <c r="E43" s="91">
-        <v>44504</v>
-      </c>
-      <c r="F43" s="165">
-        <v>44504</v>
+        <v>44490</v>
+      </c>
+      <c r="F43" s="155">
+        <v>44491</v>
       </c>
       <c r="G43" s="61">
         <v>1</v>
@@ -7808,24 +7875,24 @@
       <c r="BN43" s="97"/>
     </row>
     <row r="44" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="162" t="s">
-        <v>205</v>
+      <c r="A44" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="B44" s="152" t="s">
+        <v>159</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D44" s="115"/>
       <c r="E44" s="91">
-        <v>44504</v>
-      </c>
-      <c r="F44" s="165">
-        <v>44504</v>
+        <v>44494</v>
+      </c>
+      <c r="F44" s="155">
+        <v>44498</v>
       </c>
       <c r="G44" s="61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H44" s="62"/>
       <c r="I44" s="63"/>
@@ -7889,23 +7956,23 @@
     </row>
     <row r="45" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="162" t="s">
-        <v>206</v>
+        <v>183</v>
+      </c>
+      <c r="B45" s="152" t="s">
+        <v>238</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D45" s="115"/>
       <c r="E45" s="91">
-        <v>44504</v>
-      </c>
-      <c r="F45" s="165">
-        <v>44504</v>
+        <v>44494</v>
+      </c>
+      <c r="F45" s="155">
+        <v>44497</v>
       </c>
       <c r="G45" s="61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45" s="62"/>
       <c r="I45" s="63"/>
@@ -7969,23 +8036,23 @@
     </row>
     <row r="46" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" s="162" t="s">
-        <v>207</v>
+        <v>184</v>
+      </c>
+      <c r="B46" s="152" t="s">
+        <v>239</v>
       </c>
       <c r="C46" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D46" s="115"/>
       <c r="E46" s="91">
-        <v>44504</v>
-      </c>
-      <c r="F46" s="165">
-        <v>44504</v>
+        <v>44494</v>
+      </c>
+      <c r="F46" s="155">
+        <v>44498</v>
       </c>
       <c r="G46" s="61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" s="62"/>
       <c r="I46" s="63"/>
@@ -8048,21 +8115,21 @@
       <c r="BN46" s="97"/>
     </row>
     <row r="47" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="59">
-        <v>2.1</v>
-      </c>
-      <c r="B47" s="164" t="s">
-        <v>155</v>
+      <c r="A47" s="59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="152" t="s">
+        <v>240</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D47" s="115"/>
       <c r="E47" s="91">
-        <v>44508</v>
-      </c>
-      <c r="F47" s="165">
-        <v>44508</v>
+        <v>44497</v>
+      </c>
+      <c r="F47" s="155">
+        <v>44498</v>
       </c>
       <c r="G47" s="61">
         <v>1</v>
@@ -8128,21 +8195,21 @@
       <c r="BN47" s="97"/>
     </row>
     <row r="48" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="162" t="s">
-        <v>205</v>
+      <c r="A48" s="59">
+        <v>2.6</v>
+      </c>
+      <c r="B48" s="154" t="s">
+        <v>152</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D48" s="115"/>
       <c r="E48" s="91">
-        <v>44508</v>
-      </c>
-      <c r="F48" s="165">
-        <v>44508</v>
+        <v>44501</v>
+      </c>
+      <c r="F48" s="155">
+        <v>44501</v>
       </c>
       <c r="G48" s="61">
         <v>1</v>
@@ -8209,20 +8276,20 @@
     </row>
     <row r="49" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="162" t="s">
-        <v>206</v>
+        <v>185</v>
+      </c>
+      <c r="B49" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D49" s="115"/>
       <c r="E49" s="91">
-        <v>44508</v>
-      </c>
-      <c r="F49" s="165">
-        <v>44508</v>
+        <v>44501</v>
+      </c>
+      <c r="F49" s="155">
+        <v>44501</v>
       </c>
       <c r="G49" s="61">
         <v>1</v>
@@ -8289,23 +8356,23 @@
     </row>
     <row r="50" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="59" t="s">
-        <v>219</v>
-      </c>
-      <c r="B50" s="162" t="s">
-        <v>207</v>
+        <v>186</v>
+      </c>
+      <c r="B50" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D50" s="115"/>
       <c r="E50" s="91">
-        <v>44508</v>
-      </c>
-      <c r="F50" s="165">
-        <v>44508</v>
+        <v>44501</v>
+      </c>
+      <c r="F50" s="155">
+        <v>44501</v>
       </c>
       <c r="G50" s="61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="62"/>
       <c r="I50" s="63"/>
@@ -8368,21 +8435,21 @@
       <c r="BN50" s="97"/>
     </row>
     <row r="51" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="59">
-        <v>2.11</v>
-      </c>
-      <c r="B51" s="164" t="s">
-        <v>156</v>
+      <c r="A51" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="152" t="s">
+        <v>205</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D51" s="115"/>
       <c r="E51" s="91">
-        <v>44509</v>
-      </c>
-      <c r="F51" s="165">
-        <v>44509</v>
+        <v>44501</v>
+      </c>
+      <c r="F51" s="155">
+        <v>44501</v>
       </c>
       <c r="G51" s="61">
         <v>1</v>
@@ -8448,21 +8515,21 @@
       <c r="BN51" s="97"/>
     </row>
     <row r="52" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="162" t="s">
-        <v>205</v>
+      <c r="A52" s="59">
+        <v>2.7</v>
+      </c>
+      <c r="B52" s="154" t="s">
+        <v>151</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D52" s="115"/>
       <c r="E52" s="91">
-        <v>44509</v>
-      </c>
-      <c r="F52" s="165">
-        <v>44509</v>
+        <v>44502</v>
+      </c>
+      <c r="F52" s="155">
+        <v>44502</v>
       </c>
       <c r="G52" s="61">
         <v>1</v>
@@ -8529,20 +8596,20 @@
     </row>
     <row r="53" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="162" t="s">
-        <v>206</v>
+        <v>188</v>
+      </c>
+      <c r="B53" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D53" s="115"/>
       <c r="E53" s="91">
-        <v>44509</v>
-      </c>
-      <c r="F53" s="165">
-        <v>44509</v>
+        <v>44502</v>
+      </c>
+      <c r="F53" s="155">
+        <v>44502</v>
       </c>
       <c r="G53" s="61">
         <v>1</v>
@@ -8609,20 +8676,20 @@
     </row>
     <row r="54" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="B54" s="162" t="s">
-        <v>207</v>
+        <v>189</v>
+      </c>
+      <c r="B54" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D54" s="115"/>
       <c r="E54" s="91">
-        <v>44509</v>
-      </c>
-      <c r="F54" s="165">
-        <v>44509</v>
+        <v>44502</v>
+      </c>
+      <c r="F54" s="155">
+        <v>44502</v>
       </c>
       <c r="G54" s="61">
         <v>1</v>
@@ -8688,21 +8755,21 @@
       <c r="BN54" s="97"/>
     </row>
     <row r="55" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="59">
-        <v>2.12</v>
-      </c>
-      <c r="B55" s="164" t="s">
-        <v>157</v>
+      <c r="A55" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="152" t="s">
+        <v>205</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D55" s="115"/>
       <c r="E55" s="91">
-        <v>44510</v>
-      </c>
-      <c r="F55" s="165">
-        <v>44510</v>
+        <v>44502</v>
+      </c>
+      <c r="F55" s="155">
+        <v>44502</v>
       </c>
       <c r="G55" s="61">
         <v>1</v>
@@ -8768,21 +8835,21 @@
       <c r="BN55" s="97"/>
     </row>
     <row r="56" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="162" t="s">
-        <v>205</v>
+      <c r="A56" s="59">
+        <v>2.8</v>
+      </c>
+      <c r="B56" s="154" t="s">
+        <v>153</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D56" s="115"/>
       <c r="E56" s="91">
-        <v>44510</v>
-      </c>
-      <c r="F56" s="165">
-        <v>44510</v>
+        <v>44503</v>
+      </c>
+      <c r="F56" s="155">
+        <v>44503</v>
       </c>
       <c r="G56" s="61">
         <v>1</v>
@@ -8849,20 +8916,20 @@
     </row>
     <row r="57" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="162" t="s">
-        <v>206</v>
+        <v>191</v>
+      </c>
+      <c r="B57" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D57" s="115"/>
       <c r="E57" s="91">
-        <v>44510</v>
-      </c>
-      <c r="F57" s="165">
-        <v>44510</v>
+        <v>44503</v>
+      </c>
+      <c r="F57" s="155">
+        <v>44503</v>
       </c>
       <c r="G57" s="61">
         <v>1</v>
@@ -8929,20 +8996,20 @@
     </row>
     <row r="58" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="B58" s="162" t="s">
-        <v>207</v>
+        <v>192</v>
+      </c>
+      <c r="B58" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D58" s="115"/>
       <c r="E58" s="91">
-        <v>44510</v>
-      </c>
-      <c r="F58" s="165">
-        <v>44510</v>
+        <v>44503</v>
+      </c>
+      <c r="F58" s="155">
+        <v>44503</v>
       </c>
       <c r="G58" s="61">
         <v>1</v>
@@ -9008,21 +9075,21 @@
       <c r="BN58" s="97"/>
     </row>
     <row r="59" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="59">
-        <v>2.13</v>
-      </c>
-      <c r="B59" s="164" t="s">
-        <v>158</v>
+      <c r="A59" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="152" t="s">
+        <v>205</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D59" s="115"/>
       <c r="E59" s="91">
-        <v>44511</v>
-      </c>
-      <c r="F59" s="165">
-        <v>44511</v>
+        <v>44503</v>
+      </c>
+      <c r="F59" s="155">
+        <v>44503</v>
       </c>
       <c r="G59" s="61">
         <v>1</v>
@@ -9088,21 +9155,21 @@
       <c r="BN59" s="97"/>
     </row>
     <row r="60" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="59" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="162" t="s">
-        <v>205</v>
+      <c r="A60" s="59">
+        <v>2.9</v>
+      </c>
+      <c r="B60" s="154" t="s">
+        <v>154</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D60" s="115"/>
       <c r="E60" s="91">
-        <v>44511</v>
-      </c>
-      <c r="F60" s="165">
-        <v>44511</v>
+        <v>44504</v>
+      </c>
+      <c r="F60" s="155">
+        <v>44504</v>
       </c>
       <c r="G60" s="61">
         <v>1</v>
@@ -9169,20 +9236,20 @@
     </row>
     <row r="61" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="B61" s="162" t="s">
-        <v>206</v>
+        <v>218</v>
+      </c>
+      <c r="B61" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D61" s="115"/>
       <c r="E61" s="91">
-        <v>44511</v>
-      </c>
-      <c r="F61" s="165">
-        <v>44511</v>
+        <v>44504</v>
+      </c>
+      <c r="F61" s="155">
+        <v>44504</v>
       </c>
       <c r="G61" s="61">
         <v>1</v>
@@ -9249,20 +9316,20 @@
     </row>
     <row r="62" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B62" s="162" t="s">
-        <v>207</v>
+        <v>219</v>
+      </c>
+      <c r="B62" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="115"/>
       <c r="E62" s="91">
-        <v>44511</v>
-      </c>
-      <c r="F62" s="165">
-        <v>44511</v>
+        <v>44504</v>
+      </c>
+      <c r="F62" s="155">
+        <v>44504</v>
       </c>
       <c r="G62" s="61">
         <v>1</v>
@@ -9327,113 +9394,108 @@
       <c r="BM62" s="97"/>
       <c r="BN62" s="97"/>
     </row>
-    <row r="63" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="52">
-        <v>3</v>
-      </c>
-      <c r="B63" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="93"/>
-      <c r="F63" s="93" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G63" s="56"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J63" s="87"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
-      <c r="O63" s="98"/>
-      <c r="P63" s="98"/>
-      <c r="Q63" s="98"/>
-      <c r="R63" s="98"/>
-      <c r="S63" s="98"/>
-      <c r="T63" s="98"/>
-      <c r="U63" s="98"/>
-      <c r="V63" s="98"/>
-      <c r="W63" s="98"/>
-      <c r="X63" s="98"/>
-      <c r="Y63" s="98"/>
-      <c r="Z63" s="98"/>
-      <c r="AA63" s="98"/>
-      <c r="AB63" s="98"/>
-      <c r="AC63" s="98"/>
-      <c r="AD63" s="98"/>
-      <c r="AE63" s="98"/>
-      <c r="AF63" s="98"/>
-      <c r="AG63" s="98"/>
-      <c r="AH63" s="98"/>
-      <c r="AI63" s="98"/>
-      <c r="AJ63" s="98"/>
-      <c r="AK63" s="98"/>
-      <c r="AL63" s="98"/>
-      <c r="AM63" s="98"/>
-      <c r="AN63" s="98"/>
-      <c r="AO63" s="98"/>
-      <c r="AP63" s="98"/>
-      <c r="AQ63" s="98"/>
-      <c r="AR63" s="98"/>
-      <c r="AS63" s="98"/>
-      <c r="AT63" s="98"/>
-      <c r="AU63" s="98"/>
-      <c r="AV63" s="98"/>
-      <c r="AW63" s="98"/>
-      <c r="AX63" s="98"/>
-      <c r="AY63" s="98"/>
-      <c r="AZ63" s="98"/>
-      <c r="BA63" s="98"/>
-      <c r="BB63" s="98"/>
-      <c r="BC63" s="98"/>
-      <c r="BD63" s="98"/>
-      <c r="BE63" s="98"/>
-      <c r="BF63" s="98"/>
-      <c r="BG63" s="98"/>
-      <c r="BH63" s="98"/>
-      <c r="BI63" s="98"/>
-      <c r="BJ63" s="98"/>
-      <c r="BK63" s="98"/>
-      <c r="BL63" s="98"/>
-      <c r="BM63" s="98"/>
-      <c r="BN63" s="98"/>
+    <row r="63" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="115"/>
+      <c r="E63" s="91">
+        <v>44504</v>
+      </c>
+      <c r="F63" s="155">
+        <v>44504</v>
+      </c>
+      <c r="G63" s="61">
+        <v>1</v>
+      </c>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="86"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="97"/>
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="97"/>
+      <c r="X63" s="97"/>
+      <c r="Y63" s="97"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="97"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="97"/>
+      <c r="AG63" s="97"/>
+      <c r="AH63" s="97"/>
+      <c r="AI63" s="97"/>
+      <c r="AJ63" s="97"/>
+      <c r="AK63" s="97"/>
+      <c r="AL63" s="97"/>
+      <c r="AM63" s="97"/>
+      <c r="AN63" s="97"/>
+      <c r="AO63" s="97"/>
+      <c r="AP63" s="97"/>
+      <c r="AQ63" s="97"/>
+      <c r="AR63" s="97"/>
+      <c r="AS63" s="97"/>
+      <c r="AT63" s="97"/>
+      <c r="AU63" s="97"/>
+      <c r="AV63" s="97"/>
+      <c r="AW63" s="97"/>
+      <c r="AX63" s="97"/>
+      <c r="AY63" s="97"/>
+      <c r="AZ63" s="97"/>
+      <c r="BA63" s="97"/>
+      <c r="BB63" s="97"/>
+      <c r="BC63" s="97"/>
+      <c r="BD63" s="97"/>
+      <c r="BE63" s="97"/>
+      <c r="BF63" s="97"/>
+      <c r="BG63" s="97"/>
+      <c r="BH63" s="97"/>
+      <c r="BI63" s="97"/>
+      <c r="BJ63" s="97"/>
+      <c r="BK63" s="97"/>
+      <c r="BL63" s="97"/>
+      <c r="BM63" s="97"/>
+      <c r="BN63" s="97"/>
     </row>
     <row r="64" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B64" s="114" t="s">
-        <v>168</v>
+      <c r="A64" s="59">
+        <v>2.1</v>
+      </c>
+      <c r="B64" s="154" t="s">
+        <v>155</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="115"/>
       <c r="E64" s="91">
-        <v>44515</v>
-      </c>
-      <c r="F64" s="92">
-        <f t="shared" si="4"/>
-        <v>44516</v>
+        <v>44508</v>
+      </c>
+      <c r="F64" s="155">
+        <v>44508</v>
       </c>
       <c r="G64" s="61">
-        <v>2</v>
-      </c>
-      <c r="H64" s="62">
-        <v>0</v>
-      </c>
-      <c r="I64" s="63">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H64" s="62"/>
+      <c r="I64" s="63"/>
       <c r="J64" s="86"/>
       <c r="K64" s="97"/>
       <c r="L64" s="97"/>
@@ -9493,34 +9555,27 @@
       <c r="BN64" s="97"/>
     </row>
     <row r="65" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B65" s="114" t="s">
-        <v>169</v>
+      <c r="A65" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D65" s="115"/>
       <c r="E65" s="91">
-        <v>44517</v>
-      </c>
-      <c r="F65" s="92">
-        <f t="shared" si="4"/>
-        <v>44518</v>
+        <v>44508</v>
+      </c>
+      <c r="F65" s="155">
+        <v>44508</v>
       </c>
       <c r="G65" s="61">
-        <v>2</v>
-      </c>
-      <c r="H65" s="62">
-        <v>0</v>
-      </c>
-      <c r="I65" s="63">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H65" s="62"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="86"/>
       <c r="K65" s="97"/>
       <c r="L65" s="97"/>
@@ -9580,34 +9635,27 @@
       <c r="BN65" s="97"/>
     </row>
     <row r="66" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B66" s="114" t="s">
-        <v>170</v>
+      <c r="A66" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="115"/>
       <c r="E66" s="91">
-        <v>44519</v>
-      </c>
-      <c r="F66" s="92">
-        <f t="shared" si="4"/>
-        <v>44520</v>
+        <v>44508</v>
+      </c>
+      <c r="F66" s="155">
+        <v>44508</v>
       </c>
       <c r="G66" s="61">
-        <v>2</v>
-      </c>
-      <c r="H66" s="62">
-        <v>0</v>
-      </c>
-      <c r="I66" s="63">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="H66" s="62"/>
+      <c r="I66" s="63"/>
       <c r="J66" s="86"/>
       <c r="K66" s="97"/>
       <c r="L66" s="97"/>
@@ -9666,114 +9714,108 @@
       <c r="BM66" s="97"/>
       <c r="BN66" s="97"/>
     </row>
-    <row r="67" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="52" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>4</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93" t="str">
-        <f t="shared" ref="F67:F73" si="6">IF(ISBLANK(E67)," - ",IF(G67=0,E67,E67+G67-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G67" s="56"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58" t="str">
-        <f t="shared" ref="I67:I73" si="7">IF(OR(F67=0,E67=0)," - ",NETWORKDAYS(E67,F67))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J67" s="87"/>
-      <c r="K67" s="98"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
-      <c r="O67" s="98"/>
-      <c r="P67" s="98"/>
-      <c r="Q67" s="98"/>
-      <c r="R67" s="98"/>
-      <c r="S67" s="98"/>
-      <c r="T67" s="98"/>
-      <c r="U67" s="98"/>
-      <c r="V67" s="98"/>
-      <c r="W67" s="98"/>
-      <c r="X67" s="98"/>
-      <c r="Y67" s="98"/>
-      <c r="Z67" s="98"/>
-      <c r="AA67" s="98"/>
-      <c r="AB67" s="98"/>
-      <c r="AC67" s="98"/>
-      <c r="AD67" s="98"/>
-      <c r="AE67" s="98"/>
-      <c r="AF67" s="98"/>
-      <c r="AG67" s="98"/>
-      <c r="AH67" s="98"/>
-      <c r="AI67" s="98"/>
-      <c r="AJ67" s="98"/>
-      <c r="AK67" s="98"/>
-      <c r="AL67" s="98"/>
-      <c r="AM67" s="98"/>
-      <c r="AN67" s="98"/>
-      <c r="AO67" s="98"/>
-      <c r="AP67" s="98"/>
-      <c r="AQ67" s="98"/>
-      <c r="AR67" s="98"/>
-      <c r="AS67" s="98"/>
-      <c r="AT67" s="98"/>
-      <c r="AU67" s="98"/>
-      <c r="AV67" s="98"/>
-      <c r="AW67" s="98"/>
-      <c r="AX67" s="98"/>
-      <c r="AY67" s="98"/>
-      <c r="AZ67" s="98"/>
-      <c r="BA67" s="98"/>
-      <c r="BB67" s="98"/>
-      <c r="BC67" s="98"/>
-      <c r="BD67" s="98"/>
-      <c r="BE67" s="98"/>
-      <c r="BF67" s="98"/>
-      <c r="BG67" s="98"/>
-      <c r="BH67" s="98"/>
-      <c r="BI67" s="98"/>
-      <c r="BJ67" s="98"/>
-      <c r="BK67" s="98"/>
-      <c r="BL67" s="98"/>
-      <c r="BM67" s="98"/>
-      <c r="BN67" s="98"/>
+    <row r="67" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D67" s="115"/>
+      <c r="E67" s="91">
+        <v>44508</v>
+      </c>
+      <c r="F67" s="155">
+        <v>44508</v>
+      </c>
+      <c r="G67" s="61">
+        <v>1</v>
+      </c>
+      <c r="H67" s="62"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="86"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="97"/>
+      <c r="M67" s="97"/>
+      <c r="N67" s="97"/>
+      <c r="O67" s="97"/>
+      <c r="P67" s="97"/>
+      <c r="Q67" s="97"/>
+      <c r="R67" s="97"/>
+      <c r="S67" s="97"/>
+      <c r="T67" s="97"/>
+      <c r="U67" s="97"/>
+      <c r="V67" s="97"/>
+      <c r="W67" s="97"/>
+      <c r="X67" s="97"/>
+      <c r="Y67" s="97"/>
+      <c r="Z67" s="97"/>
+      <c r="AA67" s="97"/>
+      <c r="AB67" s="97"/>
+      <c r="AC67" s="97"/>
+      <c r="AD67" s="97"/>
+      <c r="AE67" s="97"/>
+      <c r="AF67" s="97"/>
+      <c r="AG67" s="97"/>
+      <c r="AH67" s="97"/>
+      <c r="AI67" s="97"/>
+      <c r="AJ67" s="97"/>
+      <c r="AK67" s="97"/>
+      <c r="AL67" s="97"/>
+      <c r="AM67" s="97"/>
+      <c r="AN67" s="97"/>
+      <c r="AO67" s="97"/>
+      <c r="AP67" s="97"/>
+      <c r="AQ67" s="97"/>
+      <c r="AR67" s="97"/>
+      <c r="AS67" s="97"/>
+      <c r="AT67" s="97"/>
+      <c r="AU67" s="97"/>
+      <c r="AV67" s="97"/>
+      <c r="AW67" s="97"/>
+      <c r="AX67" s="97"/>
+      <c r="AY67" s="97"/>
+      <c r="AZ67" s="97"/>
+      <c r="BA67" s="97"/>
+      <c r="BB67" s="97"/>
+      <c r="BC67" s="97"/>
+      <c r="BD67" s="97"/>
+      <c r="BE67" s="97"/>
+      <c r="BF67" s="97"/>
+      <c r="BG67" s="97"/>
+      <c r="BH67" s="97"/>
+      <c r="BI67" s="97"/>
+      <c r="BJ67" s="97"/>
+      <c r="BK67" s="97"/>
+      <c r="BL67" s="97"/>
+      <c r="BM67" s="97"/>
+      <c r="BN67" s="97"/>
     </row>
     <row r="68" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.1</v>
-      </c>
-      <c r="B68" s="114" t="s">
-        <v>176</v>
+      <c r="A68" s="59">
+        <v>2.11</v>
+      </c>
+      <c r="B68" s="154" t="s">
+        <v>156</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D68" s="115"/>
       <c r="E68" s="91">
-        <v>44522</v>
-      </c>
-      <c r="F68" s="92">
-        <f t="shared" si="6"/>
-        <v>44522</v>
+        <v>44509</v>
+      </c>
+      <c r="F68" s="155">
+        <v>44509</v>
       </c>
       <c r="G68" s="61">
         <v>1</v>
       </c>
-      <c r="H68" s="62">
-        <v>0</v>
-      </c>
-      <c r="I68" s="63">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+      <c r="H68" s="62"/>
+      <c r="I68" s="63"/>
       <c r="J68" s="86"/>
       <c r="K68" s="97"/>
       <c r="L68" s="97"/>
@@ -9833,26 +9875,24 @@
       <c r="BN68" s="97"/>
     </row>
     <row r="69" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>4.2</v>
-      </c>
-      <c r="B69" s="114" t="s">
-        <v>171</v>
+      <c r="A69" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D69" s="115"/>
       <c r="E69" s="91">
-        <v>44523</v>
-      </c>
-      <c r="F69" s="92">
-        <f t="shared" si="6"/>
-        <v>44524</v>
+        <v>44509</v>
+      </c>
+      <c r="F69" s="155">
+        <v>44509</v>
       </c>
       <c r="G69" s="61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" s="62"/>
       <c r="I69" s="63"/>
@@ -9916,32 +9956,26 @@
     </row>
     <row r="70" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="114" t="s">
-        <v>172</v>
+        <v>213</v>
+      </c>
+      <c r="B70" s="152" t="s">
+        <v>204</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D70" s="115"/>
       <c r="E70" s="91">
-        <v>44523</v>
-      </c>
-      <c r="F70" s="92">
-        <f t="shared" si="6"/>
-        <v>44524</v>
+        <v>44509</v>
+      </c>
+      <c r="F70" s="155">
+        <v>44509</v>
       </c>
       <c r="G70" s="61">
-        <v>2</v>
-      </c>
-      <c r="H70" s="62">
-        <v>0</v>
-      </c>
-      <c r="I70" s="63">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H70" s="62"/>
+      <c r="I70" s="63"/>
       <c r="J70" s="86"/>
       <c r="K70" s="97"/>
       <c r="L70" s="97"/>
@@ -10002,32 +10036,26 @@
     </row>
     <row r="71" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B71" s="114" t="s">
-        <v>173</v>
+        <v>214</v>
+      </c>
+      <c r="B71" s="152" t="s">
+        <v>205</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D71" s="115"/>
       <c r="E71" s="91">
-        <v>44523</v>
-      </c>
-      <c r="F71" s="92">
-        <f t="shared" si="6"/>
-        <v>44524</v>
+        <v>44509</v>
+      </c>
+      <c r="F71" s="155">
+        <v>44509</v>
       </c>
       <c r="G71" s="61">
-        <v>2</v>
-      </c>
-      <c r="H71" s="62">
-        <v>0</v>
-      </c>
-      <c r="I71" s="63">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H71" s="62"/>
+      <c r="I71" s="63"/>
       <c r="J71" s="86"/>
       <c r="K71" s="97"/>
       <c r="L71" s="97"/>
@@ -10087,33 +10115,27 @@
       <c r="BN71" s="97"/>
     </row>
     <row r="72" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B72" s="114" t="s">
-        <v>174</v>
+      <c r="A72" s="59">
+        <v>2.12</v>
+      </c>
+      <c r="B72" s="154" t="s">
+        <v>157</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D72" s="115"/>
       <c r="E72" s="91">
-        <v>44523</v>
-      </c>
-      <c r="F72" s="92">
-        <f t="shared" si="6"/>
-        <v>44523</v>
+        <v>44510</v>
+      </c>
+      <c r="F72" s="155">
+        <v>44510</v>
       </c>
       <c r="G72" s="61">
         <v>1</v>
       </c>
-      <c r="H72" s="62">
-        <v>0</v>
-      </c>
-      <c r="I72" s="63">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
       <c r="J72" s="86"/>
       <c r="K72" s="97"/>
       <c r="L72" s="97"/>
@@ -10174,32 +10196,26 @@
     </row>
     <row r="73" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="B73" s="114" t="s">
-        <v>175</v>
+        <v>209</v>
+      </c>
+      <c r="B73" s="152" t="s">
+        <v>203</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>139</v>
       </c>
       <c r="D73" s="115"/>
       <c r="E73" s="91">
-        <v>44525</v>
-      </c>
-      <c r="F73" s="92">
-        <f t="shared" si="6"/>
-        <v>44525</v>
+        <v>44510</v>
+      </c>
+      <c r="F73" s="155">
+        <v>44510</v>
       </c>
       <c r="G73" s="61">
         <v>1</v>
       </c>
-      <c r="H73" s="62">
-        <v>0</v>
-      </c>
-      <c r="I73" s="63">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
+      <c r="H73" s="62"/>
+      <c r="I73" s="63"/>
       <c r="J73" s="86"/>
       <c r="K73" s="97"/>
       <c r="L73" s="97"/>
@@ -10258,20 +10274,29 @@
       <c r="BM73" s="97"/>
       <c r="BN73" s="97"/>
     </row>
-    <row r="74" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="59"/>
-      <c r="B74" s="64"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="68" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J74" s="88"/>
+    <row r="74" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="152" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" s="115"/>
+      <c r="E74" s="91">
+        <v>44510</v>
+      </c>
+      <c r="F74" s="155">
+        <v>44510</v>
+      </c>
+      <c r="G74" s="61">
+        <v>1</v>
+      </c>
+      <c r="H74" s="62"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="86"/>
       <c r="K74" s="97"/>
       <c r="L74" s="97"/>
       <c r="M74" s="97"/>
@@ -10329,20 +10354,29 @@
       <c r="BM74" s="97"/>
       <c r="BN74" s="97"/>
     </row>
-    <row r="75" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="59"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="68" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J75" s="88"/>
+    <row r="75" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="115"/>
+      <c r="E75" s="91">
+        <v>44510</v>
+      </c>
+      <c r="F75" s="155">
+        <v>44510</v>
+      </c>
+      <c r="G75" s="61">
+        <v>1</v>
+      </c>
+      <c r="H75" s="62"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="86"/>
       <c r="K75" s="97"/>
       <c r="L75" s="97"/>
       <c r="M75" s="97"/>
@@ -10400,19 +10434,29 @@
       <c r="BM75" s="97"/>
       <c r="BN75" s="97"/>
     </row>
-    <row r="76" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="71"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="73"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="73"/>
-      <c r="J76" s="89"/>
+    <row r="76" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="59">
+        <v>2.13</v>
+      </c>
+      <c r="B76" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="115"/>
+      <c r="E76" s="91">
+        <v>44511</v>
+      </c>
+      <c r="F76" s="155">
+        <v>44511</v>
+      </c>
+      <c r="G76" s="61">
+        <v>1</v>
+      </c>
+      <c r="H76" s="62"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="86"/>
       <c r="K76" s="97"/>
       <c r="L76" s="97"/>
       <c r="M76" s="97"/>
@@ -10470,19 +10514,29 @@
       <c r="BM76" s="97"/>
       <c r="BN76" s="97"/>
     </row>
-    <row r="77" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="B77" s="76"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="96"/>
-      <c r="F77" s="96"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="89"/>
+    <row r="77" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="B77" s="152" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="115"/>
+      <c r="E77" s="91">
+        <v>44511</v>
+      </c>
+      <c r="F77" s="155">
+        <v>44511</v>
+      </c>
+      <c r="G77" s="61">
+        <v>1</v>
+      </c>
+      <c r="H77" s="62"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="86"/>
       <c r="K77" s="97"/>
       <c r="L77" s="97"/>
       <c r="M77" s="97"/>
@@ -10540,28 +10594,29 @@
       <c r="BM77" s="97"/>
       <c r="BN77" s="97"/>
     </row>
-    <row r="78" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="117" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+    <row r="78" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="152" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="115"/>
+      <c r="E78" s="91">
+        <v>44511</v>
+      </c>
+      <c r="F78" s="155">
+        <v>44511</v>
+      </c>
+      <c r="G78" s="61">
         <v>1</v>
       </c>
-      <c r="B78" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="60"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="91"/>
-      <c r="F78" s="92" t="str">
-        <f t="shared" ref="F78:F81" si="8">IF(ISBLANK(E78)," - ",IF(G78=0,E78,E78+G78-1))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G78" s="61"/>
       <c r="H78" s="62"/>
-      <c r="I78" s="78" t="str">
-        <f>IF(OR(F78=0,E78=0)," - ",NETWORKDAYS(E78,F78))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J78" s="90"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="86"/>
       <c r="K78" s="97"/>
       <c r="L78" s="97"/>
       <c r="M78" s="97"/>
@@ -10619,28 +10674,29 @@
       <c r="BM78" s="97"/>
       <c r="BN78" s="97"/>
     </row>
-    <row r="79" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B79" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="60"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="91"/>
-      <c r="F79" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G79" s="61"/>
+    <row r="79" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D79" s="115"/>
+      <c r="E79" s="91">
+        <v>44511</v>
+      </c>
+      <c r="F79" s="155">
+        <v>44511</v>
+      </c>
+      <c r="G79" s="61">
+        <v>1</v>
+      </c>
       <c r="H79" s="62"/>
-      <c r="I79" s="78" t="str">
-        <f t="shared" ref="I79:I81" si="9">IF(OR(F79=0,E79=0)," - ",NETWORKDAYS(E79,F79))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J79" s="90"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="86"/>
       <c r="K79" s="97"/>
       <c r="L79" s="97"/>
       <c r="M79" s="97"/>
@@ -10698,107 +10754,114 @@
       <c r="BM79" s="97"/>
       <c r="BN79" s="97"/>
     </row>
-    <row r="80" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B80" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="C80" s="60"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="91"/>
-      <c r="F80" s="92" t="str">
-        <f t="shared" si="8"/>
+    <row r="80" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="52">
+        <v>3</v>
+      </c>
+      <c r="B80" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="93" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="G80" s="61"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="58" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="J80" s="90"/>
-      <c r="K80" s="97"/>
-      <c r="L80" s="97"/>
-      <c r="M80" s="97"/>
-      <c r="N80" s="97"/>
-      <c r="O80" s="97"/>
-      <c r="P80" s="97"/>
-      <c r="Q80" s="97"/>
-      <c r="R80" s="97"/>
-      <c r="S80" s="97"/>
-      <c r="T80" s="97"/>
-      <c r="U80" s="97"/>
-      <c r="V80" s="97"/>
-      <c r="W80" s="97"/>
-      <c r="X80" s="97"/>
-      <c r="Y80" s="97"/>
-      <c r="Z80" s="97"/>
-      <c r="AA80" s="97"/>
-      <c r="AB80" s="97"/>
-      <c r="AC80" s="97"/>
-      <c r="AD80" s="97"/>
-      <c r="AE80" s="97"/>
-      <c r="AF80" s="97"/>
-      <c r="AG80" s="97"/>
-      <c r="AH80" s="97"/>
-      <c r="AI80" s="97"/>
-      <c r="AJ80" s="97"/>
-      <c r="AK80" s="97"/>
-      <c r="AL80" s="97"/>
-      <c r="AM80" s="97"/>
-      <c r="AN80" s="97"/>
-      <c r="AO80" s="97"/>
-      <c r="AP80" s="97"/>
-      <c r="AQ80" s="97"/>
-      <c r="AR80" s="97"/>
-      <c r="AS80" s="97"/>
-      <c r="AT80" s="97"/>
-      <c r="AU80" s="97"/>
-      <c r="AV80" s="97"/>
-      <c r="AW80" s="97"/>
-      <c r="AX80" s="97"/>
-      <c r="AY80" s="97"/>
-      <c r="AZ80" s="97"/>
-      <c r="BA80" s="97"/>
-      <c r="BB80" s="97"/>
-      <c r="BC80" s="97"/>
-      <c r="BD80" s="97"/>
-      <c r="BE80" s="97"/>
-      <c r="BF80" s="97"/>
-      <c r="BG80" s="97"/>
-      <c r="BH80" s="97"/>
-      <c r="BI80" s="97"/>
-      <c r="BJ80" s="97"/>
-      <c r="BK80" s="97"/>
-      <c r="BL80" s="97"/>
-      <c r="BM80" s="97"/>
-      <c r="BN80" s="97"/>
-    </row>
-    <row r="81" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J80" s="87"/>
+      <c r="K80" s="98"/>
+      <c r="L80" s="98"/>
+      <c r="M80" s="98"/>
+      <c r="N80" s="98"/>
+      <c r="O80" s="98"/>
+      <c r="P80" s="98"/>
+      <c r="Q80" s="98"/>
+      <c r="R80" s="98"/>
+      <c r="S80" s="98"/>
+      <c r="T80" s="98"/>
+      <c r="U80" s="98"/>
+      <c r="V80" s="98"/>
+      <c r="W80" s="98"/>
+      <c r="X80" s="98"/>
+      <c r="Y80" s="98"/>
+      <c r="Z80" s="98"/>
+      <c r="AA80" s="98"/>
+      <c r="AB80" s="98"/>
+      <c r="AC80" s="98"/>
+      <c r="AD80" s="98"/>
+      <c r="AE80" s="98"/>
+      <c r="AF80" s="98"/>
+      <c r="AG80" s="98"/>
+      <c r="AH80" s="98"/>
+      <c r="AI80" s="98"/>
+      <c r="AJ80" s="98"/>
+      <c r="AK80" s="98"/>
+      <c r="AL80" s="98"/>
+      <c r="AM80" s="98"/>
+      <c r="AN80" s="98"/>
+      <c r="AO80" s="98"/>
+      <c r="AP80" s="98"/>
+      <c r="AQ80" s="98"/>
+      <c r="AR80" s="98"/>
+      <c r="AS80" s="98"/>
+      <c r="AT80" s="98"/>
+      <c r="AU80" s="98"/>
+      <c r="AV80" s="98"/>
+      <c r="AW80" s="98"/>
+      <c r="AX80" s="98"/>
+      <c r="AY80" s="98"/>
+      <c r="AZ80" s="98"/>
+      <c r="BA80" s="98"/>
+      <c r="BB80" s="98"/>
+      <c r="BC80" s="98"/>
+      <c r="BD80" s="98"/>
+      <c r="BE80" s="98"/>
+      <c r="BF80" s="98"/>
+      <c r="BG80" s="98"/>
+      <c r="BH80" s="98"/>
+      <c r="BI80" s="98"/>
+      <c r="BJ80" s="98"/>
+      <c r="BK80" s="98"/>
+      <c r="BL80" s="98"/>
+      <c r="BM80" s="98"/>
+      <c r="BN80" s="98"/>
+    </row>
+    <row r="81" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="59" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>1.1.1.1</v>
-      </c>
-      <c r="B81" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C81" s="60"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="91"/>
-      <c r="F81" s="92" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="G81" s="61"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="78" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J81" s="90"/>
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B81" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="115"/>
+      <c r="E81" s="91">
+        <v>44515</v>
+      </c>
+      <c r="F81" s="92">
+        <f t="shared" si="4"/>
+        <v>44516</v>
+      </c>
+      <c r="G81" s="61">
+        <v>2</v>
+      </c>
+      <c r="H81" s="62">
+        <v>0</v>
+      </c>
+      <c r="I81" s="63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J81" s="86"/>
       <c r="K81" s="97"/>
       <c r="L81" s="97"/>
       <c r="M81" s="97"/>
@@ -10856,80 +10919,1453 @@
       <c r="BM81" s="97"/>
       <c r="BN81" s="97"/>
     </row>
-    <row r="82" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="150" t="str">
+    <row r="82" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.2</v>
+      </c>
+      <c r="B82" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="115"/>
+      <c r="E82" s="91">
+        <v>44517</v>
+      </c>
+      <c r="F82" s="92">
+        <f t="shared" si="4"/>
+        <v>44518</v>
+      </c>
+      <c r="G82" s="61">
+        <v>2</v>
+      </c>
+      <c r="H82" s="62">
+        <v>0</v>
+      </c>
+      <c r="I82" s="63">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J82" s="86"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
+      <c r="M82" s="97"/>
+      <c r="N82" s="97"/>
+      <c r="O82" s="97"/>
+      <c r="P82" s="97"/>
+      <c r="Q82" s="97"/>
+      <c r="R82" s="97"/>
+      <c r="S82" s="97"/>
+      <c r="T82" s="97"/>
+      <c r="U82" s="97"/>
+      <c r="V82" s="97"/>
+      <c r="W82" s="97"/>
+      <c r="X82" s="97"/>
+      <c r="Y82" s="97"/>
+      <c r="Z82" s="97"/>
+      <c r="AA82" s="97"/>
+      <c r="AB82" s="97"/>
+      <c r="AC82" s="97"/>
+      <c r="AD82" s="97"/>
+      <c r="AE82" s="97"/>
+      <c r="AF82" s="97"/>
+      <c r="AG82" s="97"/>
+      <c r="AH82" s="97"/>
+      <c r="AI82" s="97"/>
+      <c r="AJ82" s="97"/>
+      <c r="AK82" s="97"/>
+      <c r="AL82" s="97"/>
+      <c r="AM82" s="97"/>
+      <c r="AN82" s="97"/>
+      <c r="AO82" s="97"/>
+      <c r="AP82" s="97"/>
+      <c r="AQ82" s="97"/>
+      <c r="AR82" s="97"/>
+      <c r="AS82" s="97"/>
+      <c r="AT82" s="97"/>
+      <c r="AU82" s="97"/>
+      <c r="AV82" s="97"/>
+      <c r="AW82" s="97"/>
+      <c r="AX82" s="97"/>
+      <c r="AY82" s="97"/>
+      <c r="AZ82" s="97"/>
+      <c r="BA82" s="97"/>
+      <c r="BB82" s="97"/>
+      <c r="BC82" s="97"/>
+      <c r="BD82" s="97"/>
+      <c r="BE82" s="97"/>
+      <c r="BF82" s="97"/>
+      <c r="BG82" s="97"/>
+      <c r="BH82" s="97"/>
+      <c r="BI82" s="97"/>
+      <c r="BJ82" s="97"/>
+      <c r="BK82" s="97"/>
+      <c r="BL82" s="97"/>
+      <c r="BM82" s="97"/>
+      <c r="BN82" s="97"/>
+    </row>
+    <row r="83" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.3</v>
+      </c>
+      <c r="B83" s="114" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" s="115"/>
+      <c r="E83" s="91">
+        <v>44519</v>
+      </c>
+      <c r="F83" s="92">
+        <f t="shared" si="4"/>
+        <v>44520</v>
+      </c>
+      <c r="G83" s="61">
+        <v>2</v>
+      </c>
+      <c r="H83" s="62">
+        <v>0</v>
+      </c>
+      <c r="I83" s="63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J83" s="86"/>
+      <c r="K83" s="97"/>
+      <c r="L83" s="97"/>
+      <c r="M83" s="97"/>
+      <c r="N83" s="97"/>
+      <c r="O83" s="97"/>
+      <c r="P83" s="97"/>
+      <c r="Q83" s="97"/>
+      <c r="R83" s="97"/>
+      <c r="S83" s="97"/>
+      <c r="T83" s="97"/>
+      <c r="U83" s="97"/>
+      <c r="V83" s="97"/>
+      <c r="W83" s="97"/>
+      <c r="X83" s="97"/>
+      <c r="Y83" s="97"/>
+      <c r="Z83" s="97"/>
+      <c r="AA83" s="97"/>
+      <c r="AB83" s="97"/>
+      <c r="AC83" s="97"/>
+      <c r="AD83" s="97"/>
+      <c r="AE83" s="97"/>
+      <c r="AF83" s="97"/>
+      <c r="AG83" s="97"/>
+      <c r="AH83" s="97"/>
+      <c r="AI83" s="97"/>
+      <c r="AJ83" s="97"/>
+      <c r="AK83" s="97"/>
+      <c r="AL83" s="97"/>
+      <c r="AM83" s="97"/>
+      <c r="AN83" s="97"/>
+      <c r="AO83" s="97"/>
+      <c r="AP83" s="97"/>
+      <c r="AQ83" s="97"/>
+      <c r="AR83" s="97"/>
+      <c r="AS83" s="97"/>
+      <c r="AT83" s="97"/>
+      <c r="AU83" s="97"/>
+      <c r="AV83" s="97"/>
+      <c r="AW83" s="97"/>
+      <c r="AX83" s="97"/>
+      <c r="AY83" s="97"/>
+      <c r="AZ83" s="97"/>
+      <c r="BA83" s="97"/>
+      <c r="BB83" s="97"/>
+      <c r="BC83" s="97"/>
+      <c r="BD83" s="97"/>
+      <c r="BE83" s="97"/>
+      <c r="BF83" s="97"/>
+      <c r="BG83" s="97"/>
+      <c r="BH83" s="97"/>
+      <c r="BI83" s="97"/>
+      <c r="BJ83" s="97"/>
+      <c r="BK83" s="97"/>
+      <c r="BL83" s="97"/>
+      <c r="BM83" s="97"/>
+      <c r="BN83" s="97"/>
+    </row>
+    <row r="84" spans="1:66" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="52" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>4</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93" t="str">
+        <f t="shared" ref="F84:F90" si="6">IF(ISBLANK(E84)," - ",IF(G84=0,E84,E84+G84-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G84" s="56"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58" t="str">
+        <f t="shared" ref="I84:I90" si="7">IF(OR(F84=0,E84=0)," - ",NETWORKDAYS(E84,F84))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J84" s="87"/>
+      <c r="K84" s="98"/>
+      <c r="L84" s="98"/>
+      <c r="M84" s="98"/>
+      <c r="N84" s="98"/>
+      <c r="O84" s="98"/>
+      <c r="P84" s="98"/>
+      <c r="Q84" s="98"/>
+      <c r="R84" s="98"/>
+      <c r="S84" s="98"/>
+      <c r="T84" s="98"/>
+      <c r="U84" s="98"/>
+      <c r="V84" s="98"/>
+      <c r="W84" s="98"/>
+      <c r="X84" s="98"/>
+      <c r="Y84" s="98"/>
+      <c r="Z84" s="98"/>
+      <c r="AA84" s="98"/>
+      <c r="AB84" s="98"/>
+      <c r="AC84" s="98"/>
+      <c r="AD84" s="98"/>
+      <c r="AE84" s="98"/>
+      <c r="AF84" s="98"/>
+      <c r="AG84" s="98"/>
+      <c r="AH84" s="98"/>
+      <c r="AI84" s="98"/>
+      <c r="AJ84" s="98"/>
+      <c r="AK84" s="98"/>
+      <c r="AL84" s="98"/>
+      <c r="AM84" s="98"/>
+      <c r="AN84" s="98"/>
+      <c r="AO84" s="98"/>
+      <c r="AP84" s="98"/>
+      <c r="AQ84" s="98"/>
+      <c r="AR84" s="98"/>
+      <c r="AS84" s="98"/>
+      <c r="AT84" s="98"/>
+      <c r="AU84" s="98"/>
+      <c r="AV84" s="98"/>
+      <c r="AW84" s="98"/>
+      <c r="AX84" s="98"/>
+      <c r="AY84" s="98"/>
+      <c r="AZ84" s="98"/>
+      <c r="BA84" s="98"/>
+      <c r="BB84" s="98"/>
+      <c r="BC84" s="98"/>
+      <c r="BD84" s="98"/>
+      <c r="BE84" s="98"/>
+      <c r="BF84" s="98"/>
+      <c r="BG84" s="98"/>
+      <c r="BH84" s="98"/>
+      <c r="BI84" s="98"/>
+      <c r="BJ84" s="98"/>
+      <c r="BK84" s="98"/>
+      <c r="BL84" s="98"/>
+      <c r="BM84" s="98"/>
+      <c r="BN84" s="98"/>
+    </row>
+    <row r="85" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.1</v>
+      </c>
+      <c r="B85" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D85" s="115"/>
+      <c r="E85" s="91">
+        <v>44522</v>
+      </c>
+      <c r="F85" s="92">
+        <f t="shared" si="6"/>
+        <v>44522</v>
+      </c>
+      <c r="G85" s="61">
+        <v>1</v>
+      </c>
+      <c r="H85" s="62">
+        <v>0</v>
+      </c>
+      <c r="I85" s="63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J85" s="86"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="97"/>
+      <c r="N85" s="97"/>
+      <c r="O85" s="97"/>
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
+      <c r="S85" s="97"/>
+      <c r="T85" s="97"/>
+      <c r="U85" s="97"/>
+      <c r="V85" s="97"/>
+      <c r="W85" s="97"/>
+      <c r="X85" s="97"/>
+      <c r="Y85" s="97"/>
+      <c r="Z85" s="97"/>
+      <c r="AA85" s="97"/>
+      <c r="AB85" s="97"/>
+      <c r="AC85" s="97"/>
+      <c r="AD85" s="97"/>
+      <c r="AE85" s="97"/>
+      <c r="AF85" s="97"/>
+      <c r="AG85" s="97"/>
+      <c r="AH85" s="97"/>
+      <c r="AI85" s="97"/>
+      <c r="AJ85" s="97"/>
+      <c r="AK85" s="97"/>
+      <c r="AL85" s="97"/>
+      <c r="AM85" s="97"/>
+      <c r="AN85" s="97"/>
+      <c r="AO85" s="97"/>
+      <c r="AP85" s="97"/>
+      <c r="AQ85" s="97"/>
+      <c r="AR85" s="97"/>
+      <c r="AS85" s="97"/>
+      <c r="AT85" s="97"/>
+      <c r="AU85" s="97"/>
+      <c r="AV85" s="97"/>
+      <c r="AW85" s="97"/>
+      <c r="AX85" s="97"/>
+      <c r="AY85" s="97"/>
+      <c r="AZ85" s="97"/>
+      <c r="BA85" s="97"/>
+      <c r="BB85" s="97"/>
+      <c r="BC85" s="97"/>
+      <c r="BD85" s="97"/>
+      <c r="BE85" s="97"/>
+      <c r="BF85" s="97"/>
+      <c r="BG85" s="97"/>
+      <c r="BH85" s="97"/>
+      <c r="BI85" s="97"/>
+      <c r="BJ85" s="97"/>
+      <c r="BK85" s="97"/>
+      <c r="BL85" s="97"/>
+      <c r="BM85" s="97"/>
+      <c r="BN85" s="97"/>
+    </row>
+    <row r="86" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>4.2</v>
+      </c>
+      <c r="B86" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="115"/>
+      <c r="E86" s="91">
+        <v>44523</v>
+      </c>
+      <c r="F86" s="92">
+        <f t="shared" si="6"/>
+        <v>44524</v>
+      </c>
+      <c r="G86" s="61">
+        <v>2</v>
+      </c>
+      <c r="H86" s="62"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
+      <c r="M86" s="97"/>
+      <c r="N86" s="97"/>
+      <c r="O86" s="97"/>
+      <c r="P86" s="97"/>
+      <c r="Q86" s="97"/>
+      <c r="R86" s="97"/>
+      <c r="S86" s="97"/>
+      <c r="T86" s="97"/>
+      <c r="U86" s="97"/>
+      <c r="V86" s="97"/>
+      <c r="W86" s="97"/>
+      <c r="X86" s="97"/>
+      <c r="Y86" s="97"/>
+      <c r="Z86" s="97"/>
+      <c r="AA86" s="97"/>
+      <c r="AB86" s="97"/>
+      <c r="AC86" s="97"/>
+      <c r="AD86" s="97"/>
+      <c r="AE86" s="97"/>
+      <c r="AF86" s="97"/>
+      <c r="AG86" s="97"/>
+      <c r="AH86" s="97"/>
+      <c r="AI86" s="97"/>
+      <c r="AJ86" s="97"/>
+      <c r="AK86" s="97"/>
+      <c r="AL86" s="97"/>
+      <c r="AM86" s="97"/>
+      <c r="AN86" s="97"/>
+      <c r="AO86" s="97"/>
+      <c r="AP86" s="97"/>
+      <c r="AQ86" s="97"/>
+      <c r="AR86" s="97"/>
+      <c r="AS86" s="97"/>
+      <c r="AT86" s="97"/>
+      <c r="AU86" s="97"/>
+      <c r="AV86" s="97"/>
+      <c r="AW86" s="97"/>
+      <c r="AX86" s="97"/>
+      <c r="AY86" s="97"/>
+      <c r="AZ86" s="97"/>
+      <c r="BA86" s="97"/>
+      <c r="BB86" s="97"/>
+      <c r="BC86" s="97"/>
+      <c r="BD86" s="97"/>
+      <c r="BE86" s="97"/>
+      <c r="BF86" s="97"/>
+      <c r="BG86" s="97"/>
+      <c r="BH86" s="97"/>
+      <c r="BI86" s="97"/>
+      <c r="BJ86" s="97"/>
+      <c r="BK86" s="97"/>
+      <c r="BL86" s="97"/>
+      <c r="BM86" s="97"/>
+      <c r="BN86" s="97"/>
+    </row>
+    <row r="87" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B87" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" s="115"/>
+      <c r="E87" s="91">
+        <v>44523</v>
+      </c>
+      <c r="F87" s="92">
+        <f t="shared" si="6"/>
+        <v>44524</v>
+      </c>
+      <c r="G87" s="61">
+        <v>2</v>
+      </c>
+      <c r="H87" s="62">
+        <v>0</v>
+      </c>
+      <c r="I87" s="63">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J87" s="86"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="97"/>
+      <c r="M87" s="97"/>
+      <c r="N87" s="97"/>
+      <c r="O87" s="97"/>
+      <c r="P87" s="97"/>
+      <c r="Q87" s="97"/>
+      <c r="R87" s="97"/>
+      <c r="S87" s="97"/>
+      <c r="T87" s="97"/>
+      <c r="U87" s="97"/>
+      <c r="V87" s="97"/>
+      <c r="W87" s="97"/>
+      <c r="X87" s="97"/>
+      <c r="Y87" s="97"/>
+      <c r="Z87" s="97"/>
+      <c r="AA87" s="97"/>
+      <c r="AB87" s="97"/>
+      <c r="AC87" s="97"/>
+      <c r="AD87" s="97"/>
+      <c r="AE87" s="97"/>
+      <c r="AF87" s="97"/>
+      <c r="AG87" s="97"/>
+      <c r="AH87" s="97"/>
+      <c r="AI87" s="97"/>
+      <c r="AJ87" s="97"/>
+      <c r="AK87" s="97"/>
+      <c r="AL87" s="97"/>
+      <c r="AM87" s="97"/>
+      <c r="AN87" s="97"/>
+      <c r="AO87" s="97"/>
+      <c r="AP87" s="97"/>
+      <c r="AQ87" s="97"/>
+      <c r="AR87" s="97"/>
+      <c r="AS87" s="97"/>
+      <c r="AT87" s="97"/>
+      <c r="AU87" s="97"/>
+      <c r="AV87" s="97"/>
+      <c r="AW87" s="97"/>
+      <c r="AX87" s="97"/>
+      <c r="AY87" s="97"/>
+      <c r="AZ87" s="97"/>
+      <c r="BA87" s="97"/>
+      <c r="BB87" s="97"/>
+      <c r="BC87" s="97"/>
+      <c r="BD87" s="97"/>
+      <c r="BE87" s="97"/>
+      <c r="BF87" s="97"/>
+      <c r="BG87" s="97"/>
+      <c r="BH87" s="97"/>
+      <c r="BI87" s="97"/>
+      <c r="BJ87" s="97"/>
+      <c r="BK87" s="97"/>
+      <c r="BL87" s="97"/>
+      <c r="BM87" s="97"/>
+      <c r="BN87" s="97"/>
+    </row>
+    <row r="88" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="B88" s="114" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="115"/>
+      <c r="E88" s="91">
+        <v>44523</v>
+      </c>
+      <c r="F88" s="92">
+        <f t="shared" si="6"/>
+        <v>44524</v>
+      </c>
+      <c r="G88" s="61">
+        <v>2</v>
+      </c>
+      <c r="H88" s="62">
+        <v>0</v>
+      </c>
+      <c r="I88" s="63">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J88" s="86"/>
+      <c r="K88" s="97"/>
+      <c r="L88" s="97"/>
+      <c r="M88" s="97"/>
+      <c r="N88" s="97"/>
+      <c r="O88" s="97"/>
+      <c r="P88" s="97"/>
+      <c r="Q88" s="97"/>
+      <c r="R88" s="97"/>
+      <c r="S88" s="97"/>
+      <c r="T88" s="97"/>
+      <c r="U88" s="97"/>
+      <c r="V88" s="97"/>
+      <c r="W88" s="97"/>
+      <c r="X88" s="97"/>
+      <c r="Y88" s="97"/>
+      <c r="Z88" s="97"/>
+      <c r="AA88" s="97"/>
+      <c r="AB88" s="97"/>
+      <c r="AC88" s="97"/>
+      <c r="AD88" s="97"/>
+      <c r="AE88" s="97"/>
+      <c r="AF88" s="97"/>
+      <c r="AG88" s="97"/>
+      <c r="AH88" s="97"/>
+      <c r="AI88" s="97"/>
+      <c r="AJ88" s="97"/>
+      <c r="AK88" s="97"/>
+      <c r="AL88" s="97"/>
+      <c r="AM88" s="97"/>
+      <c r="AN88" s="97"/>
+      <c r="AO88" s="97"/>
+      <c r="AP88" s="97"/>
+      <c r="AQ88" s="97"/>
+      <c r="AR88" s="97"/>
+      <c r="AS88" s="97"/>
+      <c r="AT88" s="97"/>
+      <c r="AU88" s="97"/>
+      <c r="AV88" s="97"/>
+      <c r="AW88" s="97"/>
+      <c r="AX88" s="97"/>
+      <c r="AY88" s="97"/>
+      <c r="AZ88" s="97"/>
+      <c r="BA88" s="97"/>
+      <c r="BB88" s="97"/>
+      <c r="BC88" s="97"/>
+      <c r="BD88" s="97"/>
+      <c r="BE88" s="97"/>
+      <c r="BF88" s="97"/>
+      <c r="BG88" s="97"/>
+      <c r="BH88" s="97"/>
+      <c r="BI88" s="97"/>
+      <c r="BJ88" s="97"/>
+      <c r="BK88" s="97"/>
+      <c r="BL88" s="97"/>
+      <c r="BM88" s="97"/>
+      <c r="BN88" s="97"/>
+    </row>
+    <row r="89" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D89" s="115"/>
+      <c r="E89" s="91">
+        <v>44523</v>
+      </c>
+      <c r="F89" s="92">
+        <f t="shared" si="6"/>
+        <v>44523</v>
+      </c>
+      <c r="G89" s="61">
+        <v>1</v>
+      </c>
+      <c r="H89" s="62">
+        <v>0</v>
+      </c>
+      <c r="I89" s="63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J89" s="86"/>
+      <c r="K89" s="97"/>
+      <c r="L89" s="97"/>
+      <c r="M89" s="97"/>
+      <c r="N89" s="97"/>
+      <c r="O89" s="97"/>
+      <c r="P89" s="97"/>
+      <c r="Q89" s="97"/>
+      <c r="R89" s="97"/>
+      <c r="S89" s="97"/>
+      <c r="T89" s="97"/>
+      <c r="U89" s="97"/>
+      <c r="V89" s="97"/>
+      <c r="W89" s="97"/>
+      <c r="X89" s="97"/>
+      <c r="Y89" s="97"/>
+      <c r="Z89" s="97"/>
+      <c r="AA89" s="97"/>
+      <c r="AB89" s="97"/>
+      <c r="AC89" s="97"/>
+      <c r="AD89" s="97"/>
+      <c r="AE89" s="97"/>
+      <c r="AF89" s="97"/>
+      <c r="AG89" s="97"/>
+      <c r="AH89" s="97"/>
+      <c r="AI89" s="97"/>
+      <c r="AJ89" s="97"/>
+      <c r="AK89" s="97"/>
+      <c r="AL89" s="97"/>
+      <c r="AM89" s="97"/>
+      <c r="AN89" s="97"/>
+      <c r="AO89" s="97"/>
+      <c r="AP89" s="97"/>
+      <c r="AQ89" s="97"/>
+      <c r="AR89" s="97"/>
+      <c r="AS89" s="97"/>
+      <c r="AT89" s="97"/>
+      <c r="AU89" s="97"/>
+      <c r="AV89" s="97"/>
+      <c r="AW89" s="97"/>
+      <c r="AX89" s="97"/>
+      <c r="AY89" s="97"/>
+      <c r="AZ89" s="97"/>
+      <c r="BA89" s="97"/>
+      <c r="BB89" s="97"/>
+      <c r="BC89" s="97"/>
+      <c r="BD89" s="97"/>
+      <c r="BE89" s="97"/>
+      <c r="BF89" s="97"/>
+      <c r="BG89" s="97"/>
+      <c r="BH89" s="97"/>
+      <c r="BI89" s="97"/>
+      <c r="BJ89" s="97"/>
+      <c r="BK89" s="97"/>
+      <c r="BL89" s="97"/>
+      <c r="BM89" s="97"/>
+      <c r="BN89" s="97"/>
+    </row>
+    <row r="90" spans="1:66" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="114" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="D90" s="115"/>
+      <c r="E90" s="91">
+        <v>44525</v>
+      </c>
+      <c r="F90" s="92">
+        <f t="shared" si="6"/>
+        <v>44525</v>
+      </c>
+      <c r="G90" s="61">
+        <v>1</v>
+      </c>
+      <c r="H90" s="62">
+        <v>0</v>
+      </c>
+      <c r="I90" s="63">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="86"/>
+      <c r="K90" s="97"/>
+      <c r="L90" s="97"/>
+      <c r="M90" s="97"/>
+      <c r="N90" s="97"/>
+      <c r="O90" s="97"/>
+      <c r="P90" s="97"/>
+      <c r="Q90" s="97"/>
+      <c r="R90" s="97"/>
+      <c r="S90" s="97"/>
+      <c r="T90" s="97"/>
+      <c r="U90" s="97"/>
+      <c r="V90" s="97"/>
+      <c r="W90" s="97"/>
+      <c r="X90" s="97"/>
+      <c r="Y90" s="97"/>
+      <c r="Z90" s="97"/>
+      <c r="AA90" s="97"/>
+      <c r="AB90" s="97"/>
+      <c r="AC90" s="97"/>
+      <c r="AD90" s="97"/>
+      <c r="AE90" s="97"/>
+      <c r="AF90" s="97"/>
+      <c r="AG90" s="97"/>
+      <c r="AH90" s="97"/>
+      <c r="AI90" s="97"/>
+      <c r="AJ90" s="97"/>
+      <c r="AK90" s="97"/>
+      <c r="AL90" s="97"/>
+      <c r="AM90" s="97"/>
+      <c r="AN90" s="97"/>
+      <c r="AO90" s="97"/>
+      <c r="AP90" s="97"/>
+      <c r="AQ90" s="97"/>
+      <c r="AR90" s="97"/>
+      <c r="AS90" s="97"/>
+      <c r="AT90" s="97"/>
+      <c r="AU90" s="97"/>
+      <c r="AV90" s="97"/>
+      <c r="AW90" s="97"/>
+      <c r="AX90" s="97"/>
+      <c r="AY90" s="97"/>
+      <c r="AZ90" s="97"/>
+      <c r="BA90" s="97"/>
+      <c r="BB90" s="97"/>
+      <c r="BC90" s="97"/>
+      <c r="BD90" s="97"/>
+      <c r="BE90" s="97"/>
+      <c r="BF90" s="97"/>
+      <c r="BG90" s="97"/>
+      <c r="BH90" s="97"/>
+      <c r="BI90" s="97"/>
+      <c r="BJ90" s="97"/>
+      <c r="BK90" s="97"/>
+      <c r="BL90" s="97"/>
+      <c r="BM90" s="97"/>
+      <c r="BN90" s="97"/>
+    </row>
+    <row r="91" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="59"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="67"/>
+      <c r="I91" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J91" s="88"/>
+      <c r="K91" s="97"/>
+      <c r="L91" s="97"/>
+      <c r="M91" s="97"/>
+      <c r="N91" s="97"/>
+      <c r="O91" s="97"/>
+      <c r="P91" s="97"/>
+      <c r="Q91" s="97"/>
+      <c r="R91" s="97"/>
+      <c r="S91" s="97"/>
+      <c r="T91" s="97"/>
+      <c r="U91" s="97"/>
+      <c r="V91" s="97"/>
+      <c r="W91" s="97"/>
+      <c r="X91" s="97"/>
+      <c r="Y91" s="97"/>
+      <c r="Z91" s="97"/>
+      <c r="AA91" s="97"/>
+      <c r="AB91" s="97"/>
+      <c r="AC91" s="97"/>
+      <c r="AD91" s="97"/>
+      <c r="AE91" s="97"/>
+      <c r="AF91" s="97"/>
+      <c r="AG91" s="97"/>
+      <c r="AH91" s="97"/>
+      <c r="AI91" s="97"/>
+      <c r="AJ91" s="97"/>
+      <c r="AK91" s="97"/>
+      <c r="AL91" s="97"/>
+      <c r="AM91" s="97"/>
+      <c r="AN91" s="97"/>
+      <c r="AO91" s="97"/>
+      <c r="AP91" s="97"/>
+      <c r="AQ91" s="97"/>
+      <c r="AR91" s="97"/>
+      <c r="AS91" s="97"/>
+      <c r="AT91" s="97"/>
+      <c r="AU91" s="97"/>
+      <c r="AV91" s="97"/>
+      <c r="AW91" s="97"/>
+      <c r="AX91" s="97"/>
+      <c r="AY91" s="97"/>
+      <c r="AZ91" s="97"/>
+      <c r="BA91" s="97"/>
+      <c r="BB91" s="97"/>
+      <c r="BC91" s="97"/>
+      <c r="BD91" s="97"/>
+      <c r="BE91" s="97"/>
+      <c r="BF91" s="97"/>
+      <c r="BG91" s="97"/>
+      <c r="BH91" s="97"/>
+      <c r="BI91" s="97"/>
+      <c r="BJ91" s="97"/>
+      <c r="BK91" s="97"/>
+      <c r="BL91" s="97"/>
+      <c r="BM91" s="97"/>
+      <c r="BN91" s="97"/>
+    </row>
+    <row r="92" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="59"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="94"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="67"/>
+      <c r="I92" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J92" s="88"/>
+      <c r="K92" s="97"/>
+      <c r="L92" s="97"/>
+      <c r="M92" s="97"/>
+      <c r="N92" s="97"/>
+      <c r="O92" s="97"/>
+      <c r="P92" s="97"/>
+      <c r="Q92" s="97"/>
+      <c r="R92" s="97"/>
+      <c r="S92" s="97"/>
+      <c r="T92" s="97"/>
+      <c r="U92" s="97"/>
+      <c r="V92" s="97"/>
+      <c r="W92" s="97"/>
+      <c r="X92" s="97"/>
+      <c r="Y92" s="97"/>
+      <c r="Z92" s="97"/>
+      <c r="AA92" s="97"/>
+      <c r="AB92" s="97"/>
+      <c r="AC92" s="97"/>
+      <c r="AD92" s="97"/>
+      <c r="AE92" s="97"/>
+      <c r="AF92" s="97"/>
+      <c r="AG92" s="97"/>
+      <c r="AH92" s="97"/>
+      <c r="AI92" s="97"/>
+      <c r="AJ92" s="97"/>
+      <c r="AK92" s="97"/>
+      <c r="AL92" s="97"/>
+      <c r="AM92" s="97"/>
+      <c r="AN92" s="97"/>
+      <c r="AO92" s="97"/>
+      <c r="AP92" s="97"/>
+      <c r="AQ92" s="97"/>
+      <c r="AR92" s="97"/>
+      <c r="AS92" s="97"/>
+      <c r="AT92" s="97"/>
+      <c r="AU92" s="97"/>
+      <c r="AV92" s="97"/>
+      <c r="AW92" s="97"/>
+      <c r="AX92" s="97"/>
+      <c r="AY92" s="97"/>
+      <c r="AZ92" s="97"/>
+      <c r="BA92" s="97"/>
+      <c r="BB92" s="97"/>
+      <c r="BC92" s="97"/>
+      <c r="BD92" s="97"/>
+      <c r="BE92" s="97"/>
+      <c r="BF92" s="97"/>
+      <c r="BG92" s="97"/>
+      <c r="BH92" s="97"/>
+      <c r="BI92" s="97"/>
+      <c r="BJ92" s="97"/>
+      <c r="BK92" s="97"/>
+      <c r="BL92" s="97"/>
+      <c r="BM92" s="97"/>
+      <c r="BN92" s="97"/>
+    </row>
+    <row r="93" spans="1:66" s="74" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="71"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="95"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="97"/>
+      <c r="M93" s="97"/>
+      <c r="N93" s="97"/>
+      <c r="O93" s="97"/>
+      <c r="P93" s="97"/>
+      <c r="Q93" s="97"/>
+      <c r="R93" s="97"/>
+      <c r="S93" s="97"/>
+      <c r="T93" s="97"/>
+      <c r="U93" s="97"/>
+      <c r="V93" s="97"/>
+      <c r="W93" s="97"/>
+      <c r="X93" s="97"/>
+      <c r="Y93" s="97"/>
+      <c r="Z93" s="97"/>
+      <c r="AA93" s="97"/>
+      <c r="AB93" s="97"/>
+      <c r="AC93" s="97"/>
+      <c r="AD93" s="97"/>
+      <c r="AE93" s="97"/>
+      <c r="AF93" s="97"/>
+      <c r="AG93" s="97"/>
+      <c r="AH93" s="97"/>
+      <c r="AI93" s="97"/>
+      <c r="AJ93" s="97"/>
+      <c r="AK93" s="97"/>
+      <c r="AL93" s="97"/>
+      <c r="AM93" s="97"/>
+      <c r="AN93" s="97"/>
+      <c r="AO93" s="97"/>
+      <c r="AP93" s="97"/>
+      <c r="AQ93" s="97"/>
+      <c r="AR93" s="97"/>
+      <c r="AS93" s="97"/>
+      <c r="AT93" s="97"/>
+      <c r="AU93" s="97"/>
+      <c r="AV93" s="97"/>
+      <c r="AW93" s="97"/>
+      <c r="AX93" s="97"/>
+      <c r="AY93" s="97"/>
+      <c r="AZ93" s="97"/>
+      <c r="BA93" s="97"/>
+      <c r="BB93" s="97"/>
+      <c r="BC93" s="97"/>
+      <c r="BD93" s="97"/>
+      <c r="BE93" s="97"/>
+      <c r="BF93" s="97"/>
+      <c r="BG93" s="97"/>
+      <c r="BH93" s="97"/>
+      <c r="BI93" s="97"/>
+      <c r="BJ93" s="97"/>
+      <c r="BK93" s="97"/>
+      <c r="BL93" s="97"/>
+      <c r="BM93" s="97"/>
+      <c r="BN93" s="97"/>
+    </row>
+    <row r="94" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="76"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="96"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="97"/>
+      <c r="L94" s="97"/>
+      <c r="M94" s="97"/>
+      <c r="N94" s="97"/>
+      <c r="O94" s="97"/>
+      <c r="P94" s="97"/>
+      <c r="Q94" s="97"/>
+      <c r="R94" s="97"/>
+      <c r="S94" s="97"/>
+      <c r="T94" s="97"/>
+      <c r="U94" s="97"/>
+      <c r="V94" s="97"/>
+      <c r="W94" s="97"/>
+      <c r="X94" s="97"/>
+      <c r="Y94" s="97"/>
+      <c r="Z94" s="97"/>
+      <c r="AA94" s="97"/>
+      <c r="AB94" s="97"/>
+      <c r="AC94" s="97"/>
+      <c r="AD94" s="97"/>
+      <c r="AE94" s="97"/>
+      <c r="AF94" s="97"/>
+      <c r="AG94" s="97"/>
+      <c r="AH94" s="97"/>
+      <c r="AI94" s="97"/>
+      <c r="AJ94" s="97"/>
+      <c r="AK94" s="97"/>
+      <c r="AL94" s="97"/>
+      <c r="AM94" s="97"/>
+      <c r="AN94" s="97"/>
+      <c r="AO94" s="97"/>
+      <c r="AP94" s="97"/>
+      <c r="AQ94" s="97"/>
+      <c r="AR94" s="97"/>
+      <c r="AS94" s="97"/>
+      <c r="AT94" s="97"/>
+      <c r="AU94" s="97"/>
+      <c r="AV94" s="97"/>
+      <c r="AW94" s="97"/>
+      <c r="AX94" s="97"/>
+      <c r="AY94" s="97"/>
+      <c r="AZ94" s="97"/>
+      <c r="BA94" s="97"/>
+      <c r="BB94" s="97"/>
+      <c r="BC94" s="97"/>
+      <c r="BD94" s="97"/>
+      <c r="BE94" s="97"/>
+      <c r="BF94" s="97"/>
+      <c r="BG94" s="97"/>
+      <c r="BH94" s="97"/>
+      <c r="BI94" s="97"/>
+      <c r="BJ94" s="97"/>
+      <c r="BK94" s="97"/>
+      <c r="BL94" s="97"/>
+      <c r="BM94" s="97"/>
+      <c r="BN94" s="97"/>
+    </row>
+    <row r="95" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="117" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B95" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="60"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="91"/>
+      <c r="F95" s="92" t="str">
+        <f t="shared" ref="F95:F98" si="8">IF(ISBLANK(E95)," - ",IF(G95=0,E95,E95+G95-1))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G95" s="61"/>
+      <c r="H95" s="62"/>
+      <c r="I95" s="78" t="str">
+        <f>IF(OR(F95=0,E95=0)," - ",NETWORKDAYS(E95,F95))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J95" s="90"/>
+      <c r="K95" s="97"/>
+      <c r="L95" s="97"/>
+      <c r="M95" s="97"/>
+      <c r="N95" s="97"/>
+      <c r="O95" s="97"/>
+      <c r="P95" s="97"/>
+      <c r="Q95" s="97"/>
+      <c r="R95" s="97"/>
+      <c r="S95" s="97"/>
+      <c r="T95" s="97"/>
+      <c r="U95" s="97"/>
+      <c r="V95" s="97"/>
+      <c r="W95" s="97"/>
+      <c r="X95" s="97"/>
+      <c r="Y95" s="97"/>
+      <c r="Z95" s="97"/>
+      <c r="AA95" s="97"/>
+      <c r="AB95" s="97"/>
+      <c r="AC95" s="97"/>
+      <c r="AD95" s="97"/>
+      <c r="AE95" s="97"/>
+      <c r="AF95" s="97"/>
+      <c r="AG95" s="97"/>
+      <c r="AH95" s="97"/>
+      <c r="AI95" s="97"/>
+      <c r="AJ95" s="97"/>
+      <c r="AK95" s="97"/>
+      <c r="AL95" s="97"/>
+      <c r="AM95" s="97"/>
+      <c r="AN95" s="97"/>
+      <c r="AO95" s="97"/>
+      <c r="AP95" s="97"/>
+      <c r="AQ95" s="97"/>
+      <c r="AR95" s="97"/>
+      <c r="AS95" s="97"/>
+      <c r="AT95" s="97"/>
+      <c r="AU95" s="97"/>
+      <c r="AV95" s="97"/>
+      <c r="AW95" s="97"/>
+      <c r="AX95" s="97"/>
+      <c r="AY95" s="97"/>
+      <c r="AZ95" s="97"/>
+      <c r="BA95" s="97"/>
+      <c r="BB95" s="97"/>
+      <c r="BC95" s="97"/>
+      <c r="BD95" s="97"/>
+      <c r="BE95" s="97"/>
+      <c r="BF95" s="97"/>
+      <c r="BG95" s="97"/>
+      <c r="BH95" s="97"/>
+      <c r="BI95" s="97"/>
+      <c r="BJ95" s="97"/>
+      <c r="BK95" s="97"/>
+      <c r="BL95" s="97"/>
+      <c r="BM95" s="97"/>
+      <c r="BN95" s="97"/>
+    </row>
+    <row r="96" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B96" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="60"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="91"/>
+      <c r="F96" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G96" s="61"/>
+      <c r="H96" s="62"/>
+      <c r="I96" s="78" t="str">
+        <f t="shared" ref="I96:I98" si="9">IF(OR(F96=0,E96=0)," - ",NETWORKDAYS(E96,F96))</f>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J96" s="90"/>
+      <c r="K96" s="97"/>
+      <c r="L96" s="97"/>
+      <c r="M96" s="97"/>
+      <c r="N96" s="97"/>
+      <c r="O96" s="97"/>
+      <c r="P96" s="97"/>
+      <c r="Q96" s="97"/>
+      <c r="R96" s="97"/>
+      <c r="S96" s="97"/>
+      <c r="T96" s="97"/>
+      <c r="U96" s="97"/>
+      <c r="V96" s="97"/>
+      <c r="W96" s="97"/>
+      <c r="X96" s="97"/>
+      <c r="Y96" s="97"/>
+      <c r="Z96" s="97"/>
+      <c r="AA96" s="97"/>
+      <c r="AB96" s="97"/>
+      <c r="AC96" s="97"/>
+      <c r="AD96" s="97"/>
+      <c r="AE96" s="97"/>
+      <c r="AF96" s="97"/>
+      <c r="AG96" s="97"/>
+      <c r="AH96" s="97"/>
+      <c r="AI96" s="97"/>
+      <c r="AJ96" s="97"/>
+      <c r="AK96" s="97"/>
+      <c r="AL96" s="97"/>
+      <c r="AM96" s="97"/>
+      <c r="AN96" s="97"/>
+      <c r="AO96" s="97"/>
+      <c r="AP96" s="97"/>
+      <c r="AQ96" s="97"/>
+      <c r="AR96" s="97"/>
+      <c r="AS96" s="97"/>
+      <c r="AT96" s="97"/>
+      <c r="AU96" s="97"/>
+      <c r="AV96" s="97"/>
+      <c r="AW96" s="97"/>
+      <c r="AX96" s="97"/>
+      <c r="AY96" s="97"/>
+      <c r="AZ96" s="97"/>
+      <c r="BA96" s="97"/>
+      <c r="BB96" s="97"/>
+      <c r="BC96" s="97"/>
+      <c r="BD96" s="97"/>
+      <c r="BE96" s="97"/>
+      <c r="BF96" s="97"/>
+      <c r="BG96" s="97"/>
+      <c r="BH96" s="97"/>
+      <c r="BI96" s="97"/>
+      <c r="BJ96" s="97"/>
+      <c r="BK96" s="97"/>
+      <c r="BL96" s="97"/>
+      <c r="BM96" s="97"/>
+      <c r="BN96" s="97"/>
+    </row>
+    <row r="97" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B97" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="60"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="91"/>
+      <c r="F97" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G97" s="61"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J97" s="90"/>
+      <c r="K97" s="97"/>
+      <c r="L97" s="97"/>
+      <c r="M97" s="97"/>
+      <c r="N97" s="97"/>
+      <c r="O97" s="97"/>
+      <c r="P97" s="97"/>
+      <c r="Q97" s="97"/>
+      <c r="R97" s="97"/>
+      <c r="S97" s="97"/>
+      <c r="T97" s="97"/>
+      <c r="U97" s="97"/>
+      <c r="V97" s="97"/>
+      <c r="W97" s="97"/>
+      <c r="X97" s="97"/>
+      <c r="Y97" s="97"/>
+      <c r="Z97" s="97"/>
+      <c r="AA97" s="97"/>
+      <c r="AB97" s="97"/>
+      <c r="AC97" s="97"/>
+      <c r="AD97" s="97"/>
+      <c r="AE97" s="97"/>
+      <c r="AF97" s="97"/>
+      <c r="AG97" s="97"/>
+      <c r="AH97" s="97"/>
+      <c r="AI97" s="97"/>
+      <c r="AJ97" s="97"/>
+      <c r="AK97" s="97"/>
+      <c r="AL97" s="97"/>
+      <c r="AM97" s="97"/>
+      <c r="AN97" s="97"/>
+      <c r="AO97" s="97"/>
+      <c r="AP97" s="97"/>
+      <c r="AQ97" s="97"/>
+      <c r="AR97" s="97"/>
+      <c r="AS97" s="97"/>
+      <c r="AT97" s="97"/>
+      <c r="AU97" s="97"/>
+      <c r="AV97" s="97"/>
+      <c r="AW97" s="97"/>
+      <c r="AX97" s="97"/>
+      <c r="AY97" s="97"/>
+      <c r="AZ97" s="97"/>
+      <c r="BA97" s="97"/>
+      <c r="BB97" s="97"/>
+      <c r="BC97" s="97"/>
+      <c r="BD97" s="97"/>
+      <c r="BE97" s="97"/>
+      <c r="BF97" s="97"/>
+      <c r="BG97" s="97"/>
+      <c r="BH97" s="97"/>
+      <c r="BI97" s="97"/>
+      <c r="BJ97" s="97"/>
+      <c r="BK97" s="97"/>
+      <c r="BL97" s="97"/>
+      <c r="BM97" s="97"/>
+      <c r="BN97" s="97"/>
+    </row>
+    <row r="98" spans="1:66" s="69" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="59" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>1.1.1.1</v>
+      </c>
+      <c r="B98" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="60"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="91"/>
+      <c r="F98" s="92" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="G98" s="61"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> - </v>
+      </c>
+      <c r="J98" s="90"/>
+      <c r="K98" s="97"/>
+      <c r="L98" s="97"/>
+      <c r="M98" s="97"/>
+      <c r="N98" s="97"/>
+      <c r="O98" s="97"/>
+      <c r="P98" s="97"/>
+      <c r="Q98" s="97"/>
+      <c r="R98" s="97"/>
+      <c r="S98" s="97"/>
+      <c r="T98" s="97"/>
+      <c r="U98" s="97"/>
+      <c r="V98" s="97"/>
+      <c r="W98" s="97"/>
+      <c r="X98" s="97"/>
+      <c r="Y98" s="97"/>
+      <c r="Z98" s="97"/>
+      <c r="AA98" s="97"/>
+      <c r="AB98" s="97"/>
+      <c r="AC98" s="97"/>
+      <c r="AD98" s="97"/>
+      <c r="AE98" s="97"/>
+      <c r="AF98" s="97"/>
+      <c r="AG98" s="97"/>
+      <c r="AH98" s="97"/>
+      <c r="AI98" s="97"/>
+      <c r="AJ98" s="97"/>
+      <c r="AK98" s="97"/>
+      <c r="AL98" s="97"/>
+      <c r="AM98" s="97"/>
+      <c r="AN98" s="97"/>
+      <c r="AO98" s="97"/>
+      <c r="AP98" s="97"/>
+      <c r="AQ98" s="97"/>
+      <c r="AR98" s="97"/>
+      <c r="AS98" s="97"/>
+      <c r="AT98" s="97"/>
+      <c r="AU98" s="97"/>
+      <c r="AV98" s="97"/>
+      <c r="AW98" s="97"/>
+      <c r="AX98" s="97"/>
+      <c r="AY98" s="97"/>
+      <c r="AZ98" s="97"/>
+      <c r="BA98" s="97"/>
+      <c r="BB98" s="97"/>
+      <c r="BC98" s="97"/>
+      <c r="BD98" s="97"/>
+      <c r="BE98" s="97"/>
+      <c r="BF98" s="97"/>
+      <c r="BG98" s="97"/>
+      <c r="BH98" s="97"/>
+      <c r="BI98" s="97"/>
+      <c r="BJ98" s="97"/>
+      <c r="BK98" s="97"/>
+      <c r="BL98" s="97"/>
+      <c r="BM98" s="97"/>
+      <c r="BN98" s="97"/>
+    </row>
+    <row r="99" spans="1:66" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="150" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToCreateAGanttChart","► Watch How to Create a Gantt Chart in Excel")</f>
         <v>► Watch How to Create a Gantt Chart in Excel</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="30"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="30"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="30"/>
-      <c r="V82" s="30"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="30"/>
-      <c r="Y82" s="30"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="30"/>
-      <c r="AB82" s="30"/>
-      <c r="AC82" s="30"/>
-      <c r="AD82" s="30"/>
-      <c r="AE82" s="30"/>
-      <c r="AF82" s="30"/>
-      <c r="AG82" s="30"/>
-      <c r="AH82" s="30"/>
-      <c r="AI82" s="30"/>
-      <c r="AJ82" s="30"/>
-      <c r="AK82" s="30"/>
-      <c r="AL82" s="30"/>
-      <c r="AM82" s="30"/>
-      <c r="AN82" s="30"/>
-      <c r="AO82" s="30"/>
-      <c r="AP82" s="30"/>
-      <c r="AQ82" s="30"/>
-      <c r="AR82" s="30"/>
-      <c r="AS82" s="30"/>
-      <c r="AT82" s="30"/>
-      <c r="AU82" s="30"/>
-      <c r="AV82" s="30"/>
-      <c r="AW82" s="30"/>
-      <c r="AX82" s="30"/>
-      <c r="AY82" s="30"/>
-      <c r="AZ82" s="30"/>
-      <c r="BA82" s="30"/>
-      <c r="BB82" s="30"/>
-      <c r="BC82" s="30"/>
-      <c r="BD82" s="30"/>
-      <c r="BE82" s="30"/>
-      <c r="BF82" s="30"/>
-      <c r="BG82" s="30"/>
-      <c r="BH82" s="30"/>
-      <c r="BI82" s="30"/>
-      <c r="BJ82" s="30"/>
-      <c r="BK82" s="30"/>
-      <c r="BL82" s="30"/>
-      <c r="BM82" s="30"/>
-      <c r="BN82" s="30"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="30"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="30"/>
+      <c r="Q99" s="30"/>
+      <c r="R99" s="30"/>
+      <c r="S99" s="30"/>
+      <c r="T99" s="30"/>
+      <c r="U99" s="30"/>
+      <c r="V99" s="30"/>
+      <c r="W99" s="30"/>
+      <c r="X99" s="30"/>
+      <c r="Y99" s="30"/>
+      <c r="Z99" s="30"/>
+      <c r="AA99" s="30"/>
+      <c r="AB99" s="30"/>
+      <c r="AC99" s="30"/>
+      <c r="AD99" s="30"/>
+      <c r="AE99" s="30"/>
+      <c r="AF99" s="30"/>
+      <c r="AG99" s="30"/>
+      <c r="AH99" s="30"/>
+      <c r="AI99" s="30"/>
+      <c r="AJ99" s="30"/>
+      <c r="AK99" s="30"/>
+      <c r="AL99" s="30"/>
+      <c r="AM99" s="30"/>
+      <c r="AN99" s="30"/>
+      <c r="AO99" s="30"/>
+      <c r="AP99" s="30"/>
+      <c r="AQ99" s="30"/>
+      <c r="AR99" s="30"/>
+      <c r="AS99" s="30"/>
+      <c r="AT99" s="30"/>
+      <c r="AU99" s="30"/>
+      <c r="AV99" s="30"/>
+      <c r="AW99" s="30"/>
+      <c r="AX99" s="30"/>
+      <c r="AY99" s="30"/>
+      <c r="AZ99" s="30"/>
+      <c r="BA99" s="30"/>
+      <c r="BB99" s="30"/>
+      <c r="BC99" s="30"/>
+      <c r="BD99" s="30"/>
+      <c r="BE99" s="30"/>
+      <c r="BF99" s="30"/>
+      <c r="BG99" s="30"/>
+      <c r="BH99" s="30"/>
+      <c r="BI99" s="30"/>
+      <c r="BJ99" s="30"/>
+      <c r="BK99" s="30"/>
+      <c r="BL99" s="30"/>
+      <c r="BM99" s="30"/>
+      <c r="BN99" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -10940,18 +12376,9 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="H74:H81 H63:H66 H8:H34">
+  <conditionalFormatting sqref="H91:H98 H80:H83 H8:H51">
     <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10970,7 +12397,7 @@
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN81">
+  <conditionalFormatting sqref="K8:BN98">
     <cfRule type="expression" dxfId="10" priority="80">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
@@ -10978,12 +12405,12 @@
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K74:BN81 K63:BN66 K6:BN34">
+  <conditionalFormatting sqref="K91:BN98 K80:BN83 K6:BN51">
     <cfRule type="expression" dxfId="8" priority="40">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H73">
+  <conditionalFormatting sqref="H84:H90">
     <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -10997,12 +12424,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67:BN73">
+  <conditionalFormatting sqref="K84:BN90">
     <cfRule type="expression" dxfId="7" priority="30">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38">
+  <conditionalFormatting sqref="H52:H55">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11016,12 +12443,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K35:BN38">
+  <conditionalFormatting sqref="K52:BN55">
     <cfRule type="expression" dxfId="6" priority="26">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H42">
+  <conditionalFormatting sqref="H56:H59">
     <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11035,12 +12462,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K39:BN42">
+  <conditionalFormatting sqref="K56:BN59">
     <cfRule type="expression" dxfId="5" priority="22">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43:H46">
+  <conditionalFormatting sqref="H60:H63">
     <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11054,12 +12481,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:BN46">
+  <conditionalFormatting sqref="K60:BN63">
     <cfRule type="expression" dxfId="4" priority="18">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H50">
+  <conditionalFormatting sqref="H64:H67">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11073,12 +12500,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47:BN50">
+  <conditionalFormatting sqref="K64:BN67">
     <cfRule type="expression" dxfId="3" priority="14">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51:H54">
+  <conditionalFormatting sqref="H68:H71">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11092,12 +12519,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K51:BN54">
+  <conditionalFormatting sqref="K68:BN71">
     <cfRule type="expression" dxfId="2" priority="10">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:H58">
+  <conditionalFormatting sqref="H72:H75">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11111,12 +12538,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K55:BN58">
+  <conditionalFormatting sqref="K72:BN75">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H62">
+  <conditionalFormatting sqref="H76:H79">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -11130,7 +12557,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:BN62">
+  <conditionalFormatting sqref="K76:BN79">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>K$6=TODAY()</formula>
     </cfRule>
@@ -11145,7 +12572,7 @@
   <pageSetup scale="63" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A74:B75 A77:B77 B76 E8 E20 E63 E74:H77 G8:H8 G20:H20 G63:H63 H18 G78:G81 H15 H66 H64 H65" unlockedFormula="1"/>
+    <ignoredError sqref="A91:B92 A94:B94 B93 E8 E36 E80 E91:H94 G8:H8 G36:H36 G80:H80 H26 G95:G98 H15 H83 H81 H82" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -11193,7 +12620,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H74:H81 H63:H66 H8:H34</xm:sqref>
+          <xm:sqref>H91:H98 H80:H83 H8:H51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{86A2946A-1B1C-42A3-B618-0EEC5F87A205}">
@@ -11208,7 +12635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H67:H73</xm:sqref>
+          <xm:sqref>H84:H90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DA232CAC-4AC6-432E-AF2C-B0A36825C038}">
@@ -11223,7 +12650,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H35:H38</xm:sqref>
+          <xm:sqref>H52:H55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BE842DAC-97FA-42C7-8957-5C637C1739AB}">
@@ -11238,7 +12665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H39:H42</xm:sqref>
+          <xm:sqref>H56:H59</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{93B47A8C-24E3-4922-94CD-7209935C2F76}">
@@ -11253,7 +12680,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H43:H46</xm:sqref>
+          <xm:sqref>H60:H63</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AE18B83E-3524-4F73-A8E0-CF4F11E070AB}">
@@ -11268,7 +12695,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H47:H50</xm:sqref>
+          <xm:sqref>H64:H67</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1E859490-C2CA-4101-9C93-DD6E24D438A8}">
@@ -11283,7 +12710,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H51:H54</xm:sqref>
+          <xm:sqref>H68:H71</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FE0BD25-3D0C-448F-ACFE-54E37F324F68}">
@@ -11298,7 +12725,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H55:H58</xm:sqref>
+          <xm:sqref>H72:H75</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F5DBF08B-8EA2-46FB-925D-FD4253278A7E}">
@@ -11313,7 +12740,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H59:H62</xm:sqref>
+          <xm:sqref>H76:H79</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11581,10 +13008,10 @@
     </row>
     <row r="12" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="160"/>
+      <c r="B13" s="165"/>
     </row>
     <row r="14" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" s="121" customFormat="1" ht="18" x14ac:dyDescent="0.2">
@@ -11646,10 +13073,10 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" spans="1:3" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="160" t="s">
+      <c r="A24" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="160"/>
+      <c r="B24" s="165"/>
     </row>
     <row r="25" spans="1:3" s="8" customFormat="1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A25" s="131"/>
@@ -11722,10 +13149,10 @@
       <c r="B37" s="10"/>
     </row>
     <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="165" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="160"/>
+      <c r="B38" s="165"/>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="128" t="s">
@@ -11762,10 +13189,10 @@
       <c r="B48" s="11"/>
     </row>
     <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="160" t="s">
+      <c r="A49" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="160"/>
+      <c r="B49" s="165"/>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="128" t="s">
@@ -11863,10 +13290,10 @@
       <c r="B64" s="12"/>
     </row>
     <row r="65" spans="1:2" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="160" t="s">
+      <c r="A65" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="160"/>
+      <c r="B65" s="165"/>
     </row>
     <row r="66" spans="1:2" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B66" s="128" t="s">
@@ -11877,10 +13304,10 @@
       <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="160" t="s">
+      <c r="A68" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="160"/>
+      <c r="B68" s="165"/>
     </row>
     <row r="69" spans="1:2" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="143" t="s">
